--- a/data/taxa_per_stage_species.xlsx
+++ b/data/taxa_per_stage_species.xlsx
@@ -3130,13 +3130,13 @@
         <v>139.8</v>
       </c>
       <c r="C116">
-        <v>50.830357435</v>
+        <v>1.28596142445</v>
       </c>
       <c r="D116">
-        <v>27.501684</v>
+        <v>0.11145496</v>
       </c>
       <c r="E116">
-        <v>71.670906</v>
+        <v>2.573825</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3154,13 +3154,13 @@
         <v>145</v>
       </c>
       <c r="C117">
-        <v>1.28596142445</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0.11145496</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2.573825</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3826,13 +3826,13 @@
         <v>139.8</v>
       </c>
       <c r="C145">
-        <v>9.799469675499999</v>
+        <v>0.148149603545</v>
       </c>
       <c r="D145">
-        <v>4.63676</v>
+        <v>0.0057297945</v>
       </c>
       <c r="E145">
-        <v>28.737265</v>
+        <v>0.55854404</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3850,13 +3850,13 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0.148149603545</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>0.0057297945</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0.55854404</v>
+        <v>0</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4522,13 +4522,13 @@
         <v>139.8</v>
       </c>
       <c r="C174">
-        <v>6.3060024705</v>
+        <v>0.065750256725</v>
       </c>
       <c r="D174">
-        <v>1.0226548</v>
+        <v>0.008432864999999999</v>
       </c>
       <c r="E174">
-        <v>11.5978565</v>
+        <v>0.17222488</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4546,13 +4546,13 @@
         <v>145</v>
       </c>
       <c r="C175">
-        <v>0.065750256725</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>0.008432864999999999</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0.17222488</v>
+        <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5194,13 +5194,13 @@
         <v>132.6</v>
       </c>
       <c r="C202">
-        <v>0.861076760325</v>
+        <v>0.0136522150192</v>
       </c>
       <c r="D202">
-        <v>0.008798122</v>
+        <v>0.00048053265</v>
       </c>
       <c r="E202">
-        <v>1.3008006</v>
+        <v>0.023570657</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5218,13 +5218,13 @@
         <v>139.8</v>
       </c>
       <c r="C203">
-        <v>0.0136522150192</v>
+        <v>0.0026501750886</v>
       </c>
       <c r="D203">
-        <v>0.00048053265</v>
+        <v>0.00015175343</v>
       </c>
       <c r="E203">
-        <v>0.023570657</v>
+        <v>0.0075178146</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5242,13 +5242,13 @@
         <v>145</v>
       </c>
       <c r="C204">
-        <v>0.0026501750886</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>0.00015175343</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>0.0075178146</v>
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5914,13 +5914,13 @@
         <v>139.8</v>
       </c>
       <c r="C232">
-        <v>63.5316867255</v>
+        <v>0.5391932136249999</v>
       </c>
       <c r="D232">
-        <v>3.6047635</v>
+        <v>0.024736524</v>
       </c>
       <c r="E232">
-        <v>84.40094000000001</v>
+        <v>1.367696</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5938,13 +5938,13 @@
         <v>145</v>
       </c>
       <c r="C233">
-        <v>0.5391932136249999</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <v>0.024736524</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>1.367696</v>
+        <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -7306,13 +7306,13 @@
         <v>139.8</v>
       </c>
       <c r="C290">
-        <v>23.1288816883</v>
+        <v>0.06367772397599999</v>
       </c>
       <c r="D290">
-        <v>0.16776812</v>
+        <v>0.0015351772</v>
       </c>
       <c r="E290">
-        <v>56.987003</v>
+        <v>0.17221677</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7330,13 +7330,13 @@
         <v>145</v>
       </c>
       <c r="C291">
-        <v>0.06367772397599999</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>0.0015351772</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>0.17221677</v>
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>

--- a/data/taxa_per_stage_species.xlsx
+++ b/data/taxa_per_stage_species.xlsx
@@ -399,13 +399,13 @@
         <v>2.58</v>
       </c>
       <c r="C2">
-        <v>1099.999813</v>
+        <v>1075.206566475</v>
       </c>
       <c r="D2">
-        <v>1099.9993</v>
+        <v>984.8603000000001</v>
       </c>
       <c r="E2">
-        <v>1100.0004</v>
+        <v>1161.2567</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -423,13 +423,13 @@
         <v>5.333</v>
       </c>
       <c r="C3">
-        <v>1237.7519585</v>
+        <v>1447.715635</v>
       </c>
       <c r="D3">
-        <v>1041.3685</v>
+        <v>1232.1847</v>
       </c>
       <c r="E3">
-        <v>1776.7826</v>
+        <v>1569.7406</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,13 +447,13 @@
         <v>7.246</v>
       </c>
       <c r="C4">
-        <v>1346.7669455</v>
+        <v>1227.26939575</v>
       </c>
       <c r="D4">
-        <v>1120.655</v>
+        <v>1146.6227</v>
       </c>
       <c r="E4">
-        <v>1780.9814</v>
+        <v>1301.4194</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         <v>11.63</v>
       </c>
       <c r="C5">
-        <v>1397.82409</v>
+        <v>1226.429701</v>
       </c>
       <c r="D5">
-        <v>1150.7737</v>
+        <v>1095.675</v>
       </c>
       <c r="E5">
-        <v>1802.0444</v>
+        <v>1331.9749</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -495,13 +495,13 @@
         <v>13.82</v>
       </c>
       <c r="C6">
-        <v>1391.8240565</v>
+        <v>1214.760184</v>
       </c>
       <c r="D6">
-        <v>1133.0297</v>
+        <v>1066.8259</v>
       </c>
       <c r="E6">
-        <v>1709.3589</v>
+        <v>1336.813</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         <v>15.97</v>
       </c>
       <c r="C7">
-        <v>1422.951474</v>
+        <v>1267.39143</v>
       </c>
       <c r="D7">
-        <v>1158.0378</v>
+        <v>1153.8044</v>
       </c>
       <c r="E7">
-        <v>1750.7523</v>
+        <v>1406.5719</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>20.44</v>
       </c>
       <c r="C8">
-        <v>1435.4638525</v>
+        <v>1298.77550175</v>
       </c>
       <c r="D8">
-        <v>1207.5315</v>
+        <v>1188.3701</v>
       </c>
       <c r="E8">
-        <v>1652.3624</v>
+        <v>1468.1559</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         <v>23.03</v>
       </c>
       <c r="C9">
-        <v>1392.4113245</v>
+        <v>1234.838307</v>
       </c>
       <c r="D9">
-        <v>1117.3893</v>
+        <v>1076.8866</v>
       </c>
       <c r="E9">
-        <v>1705.3004</v>
+        <v>1390.7789</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         <v>27.82</v>
       </c>
       <c r="C10">
-        <v>1439.5200665</v>
+        <v>1209.2989835</v>
       </c>
       <c r="D10">
-        <v>1230.4736</v>
+        <v>1105.236</v>
       </c>
       <c r="E10">
-        <v>1831.3495</v>
+        <v>1338.9832</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         <v>33.9</v>
       </c>
       <c r="C11">
-        <v>1568.09555</v>
+        <v>1117.58356075</v>
       </c>
       <c r="D11">
-        <v>1243.2028</v>
+        <v>993.6866</v>
       </c>
       <c r="E11">
-        <v>1853.854</v>
+        <v>1227.456</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         <v>37.71</v>
       </c>
       <c r="C12">
-        <v>1806.5810715</v>
+        <v>1373.9064775</v>
       </c>
       <c r="D12">
-        <v>1446.1589</v>
+        <v>1221.0918</v>
       </c>
       <c r="E12">
-        <v>2354.7202</v>
+        <v>1534.2913</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -663,13 +663,13 @@
         <v>41.2</v>
       </c>
       <c r="C13">
-        <v>2083.1290865</v>
+        <v>1717.9172375</v>
       </c>
       <c r="D13">
-        <v>1652.9484</v>
+        <v>1558.105</v>
       </c>
       <c r="E13">
-        <v>2682.282</v>
+        <v>1943.3683</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -687,13 +687,13 @@
         <v>47.8</v>
       </c>
       <c r="C14">
-        <v>2313.060716</v>
+        <v>1832.93123775</v>
       </c>
       <c r="D14">
-        <v>1993.3907</v>
+        <v>1663.9059</v>
       </c>
       <c r="E14">
-        <v>2896.0005</v>
+        <v>2048.9453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         <v>56</v>
       </c>
       <c r="C15">
-        <v>2293.3063185</v>
+        <v>1726.05117975</v>
       </c>
       <c r="D15">
-        <v>1903.8279</v>
+        <v>1560.538</v>
       </c>
       <c r="E15">
-        <v>2775.4539</v>
+        <v>1949.5696</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -735,13 +735,13 @@
         <v>59.2</v>
       </c>
       <c r="C16">
-        <v>1694.4987885</v>
+        <v>1360.67384</v>
       </c>
       <c r="D16">
-        <v>1487.0374</v>
+        <v>1245.1105</v>
       </c>
       <c r="E16">
-        <v>2023.7859</v>
+        <v>1472.9098</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         <v>61.6</v>
       </c>
       <c r="C17">
-        <v>1379.1743525</v>
+        <v>1187.42688</v>
       </c>
       <c r="D17">
-        <v>1126.8749</v>
+        <v>1028.8344</v>
       </c>
       <c r="E17">
-        <v>1839.6143</v>
+        <v>1375.8932</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         <v>66</v>
       </c>
       <c r="C18">
-        <v>1439.7647405</v>
+        <v>1282.73810475</v>
       </c>
       <c r="D18">
-        <v>1149.2441</v>
+        <v>1092.0691</v>
       </c>
       <c r="E18">
-        <v>1912.5929</v>
+        <v>1571.3511</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -807,13 +807,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C19">
-        <v>1629.1373525</v>
+        <v>1420.2324195</v>
       </c>
       <c r="D19">
-        <v>1303.5819</v>
+        <v>1265.4033</v>
       </c>
       <c r="E19">
-        <v>2042.9786</v>
+        <v>1580.043</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C20">
-        <v>1768.886361</v>
+        <v>1520.12182175</v>
       </c>
       <c r="D20">
-        <v>1420.6134</v>
+        <v>1375.8398</v>
       </c>
       <c r="E20">
-        <v>2129.338</v>
+        <v>1673.6306</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         <v>86.3</v>
       </c>
       <c r="C21">
-        <v>1372.3014895</v>
+        <v>1233.200175</v>
       </c>
       <c r="D21">
-        <v>1068.0181</v>
+        <v>1140.8041</v>
       </c>
       <c r="E21">
-        <v>1716.4452</v>
+        <v>1336.3972</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -879,13 +879,13 @@
         <v>89.8</v>
       </c>
       <c r="C22">
-        <v>1285.7358085</v>
+        <v>1110.417367125</v>
       </c>
       <c r="D22">
-        <v>989.8658</v>
+        <v>960.82227</v>
       </c>
       <c r="E22">
-        <v>1544.5304</v>
+        <v>1273.5259</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -903,13 +903,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C23">
-        <v>1376.930433</v>
+        <v>1095.198173725</v>
       </c>
       <c r="D23">
-        <v>1078.1595</v>
+        <v>954.277</v>
       </c>
       <c r="E23">
-        <v>1748.2699</v>
+        <v>1279.0409</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>100.5</v>
       </c>
       <c r="C24">
-        <v>1280.4790085</v>
+        <v>1186.37886775</v>
       </c>
       <c r="D24">
-        <v>1041.4155</v>
+        <v>1069.1897</v>
       </c>
       <c r="E24">
-        <v>1532.3539</v>
+        <v>1406.4323</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>1098.96147995</v>
+        <v>848.6353122</v>
       </c>
       <c r="D25">
-        <v>980.5491</v>
+        <v>724.6031</v>
       </c>
       <c r="E25">
-        <v>1372.2548</v>
+        <v>1074.0737</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -972,21 +972,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C26">
-        <v>669.5631699</v>
+        <v>569.84629895</v>
       </c>
       <c r="D26">
-        <v>572.3926</v>
+        <v>463.42365</v>
       </c>
       <c r="E26">
-        <v>808.61505</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>719.1642000000001</v>
       </c>
     </row>
     <row r="27">
@@ -999,13 +994,13 @@
         <v>129.4</v>
       </c>
       <c r="C27">
-        <v>412.66283495</v>
+        <v>487.765667875</v>
       </c>
       <c r="D27">
-        <v>304.94034</v>
+        <v>400.52216</v>
       </c>
       <c r="E27">
-        <v>566.6378999999999</v>
+        <v>688.8217</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1023,13 +1018,13 @@
         <v>132.6</v>
       </c>
       <c r="C28">
-        <v>350.874907</v>
+        <v>455.707586525</v>
       </c>
       <c r="D28">
-        <v>246.74434</v>
+        <v>362.65958</v>
       </c>
       <c r="E28">
-        <v>555.4374</v>
+        <v>672.27167</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1047,13 +1042,13 @@
         <v>139.8</v>
       </c>
       <c r="C29">
-        <v>383.69063735</v>
+        <v>657.1441192999999</v>
       </c>
       <c r="D29">
-        <v>282.50702</v>
+        <v>475.78772</v>
       </c>
       <c r="E29">
-        <v>507.7722</v>
+        <v>1053.4316</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1071,13 +1066,13 @@
         <v>145</v>
       </c>
       <c r="C30">
-        <v>100.758040995</v>
+        <v>310.662611525</v>
       </c>
       <c r="D30">
-        <v>74.530304</v>
+        <v>226.2151</v>
       </c>
       <c r="E30">
-        <v>126.39833</v>
+        <v>436.30875</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1095,13 +1090,13 @@
         <v>2.58</v>
       </c>
       <c r="C31">
-        <v>599.0000144000001</v>
+        <v>631.9318441</v>
       </c>
       <c r="D31">
-        <v>598.99976</v>
+        <v>561.51776</v>
       </c>
       <c r="E31">
-        <v>599.00037</v>
+        <v>781.72076</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1119,13 +1114,13 @@
         <v>5.333</v>
       </c>
       <c r="C32">
-        <v>897.99699245</v>
+        <v>772.5277444</v>
       </c>
       <c r="D32">
-        <v>662.85077</v>
+        <v>612.67126</v>
       </c>
       <c r="E32">
-        <v>1152.8745</v>
+        <v>960.4027</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1143,13 +1138,13 @@
         <v>7.246</v>
       </c>
       <c r="C33">
-        <v>1050.4276269</v>
+        <v>810.4119169000001</v>
       </c>
       <c r="D33">
-        <v>789.1931</v>
+        <v>652.1266000000001</v>
       </c>
       <c r="E33">
-        <v>1510.2106</v>
+        <v>933.35785</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1167,13 +1162,13 @@
         <v>11.63</v>
       </c>
       <c r="C34">
-        <v>1147.7733914</v>
+        <v>837.0946386000001</v>
       </c>
       <c r="D34">
-        <v>642.9391000000001</v>
+        <v>617.52734</v>
       </c>
       <c r="E34">
-        <v>1797.4122</v>
+        <v>1032.2367</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1191,13 +1186,13 @@
         <v>13.82</v>
       </c>
       <c r="C35">
-        <v>932.7718652999999</v>
+        <v>705.0835298</v>
       </c>
       <c r="D35">
-        <v>539.5761</v>
+        <v>524.5124</v>
       </c>
       <c r="E35">
-        <v>1403.9749</v>
+        <v>926.9783</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1215,13 +1210,13 @@
         <v>15.97</v>
       </c>
       <c r="C36">
-        <v>900.52868285</v>
+        <v>655.46588805</v>
       </c>
       <c r="D36">
-        <v>468.40073</v>
+        <v>509.6288</v>
       </c>
       <c r="E36">
-        <v>1329.2788</v>
+        <v>861.6704</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1239,13 +1234,13 @@
         <v>20.44</v>
       </c>
       <c r="C37">
-        <v>802.5280781</v>
+        <v>607.24555</v>
       </c>
       <c r="D37">
-        <v>426.3082</v>
+        <v>467.99353</v>
       </c>
       <c r="E37">
-        <v>1212.2037</v>
+        <v>769.3668</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1263,13 +1258,13 @@
         <v>23.03</v>
       </c>
       <c r="C38">
-        <v>754.5832937500001</v>
+        <v>586.102515025</v>
       </c>
       <c r="D38">
-        <v>401.15884</v>
+        <v>463.81155</v>
       </c>
       <c r="E38">
-        <v>1174.6901</v>
+        <v>705.6004</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1287,13 +1282,13 @@
         <v>27.82</v>
       </c>
       <c r="C39">
-        <v>941.7134922500001</v>
+        <v>614.7135019249999</v>
       </c>
       <c r="D39">
-        <v>457.82782</v>
+        <v>504.80347</v>
       </c>
       <c r="E39">
-        <v>1492.9868</v>
+        <v>722.17175</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1311,13 +1306,13 @@
         <v>33.9</v>
       </c>
       <c r="C40">
-        <v>953.82754275</v>
+        <v>588.2938189</v>
       </c>
       <c r="D40">
-        <v>476.99716</v>
+        <v>469.28973</v>
       </c>
       <c r="E40">
-        <v>1514.651</v>
+        <v>708.88336</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1335,13 +1330,13 @@
         <v>37.71</v>
       </c>
       <c r="C41">
-        <v>1057.1450458</v>
+        <v>682.0383251</v>
       </c>
       <c r="D41">
-        <v>573.1307399999999</v>
+        <v>563.0929</v>
       </c>
       <c r="E41">
-        <v>1582.4202</v>
+        <v>789.7608</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1359,13 +1354,13 @@
         <v>41.2</v>
       </c>
       <c r="C42">
-        <v>1389.6545727</v>
+        <v>830.131689775</v>
       </c>
       <c r="D42">
-        <v>710.3007</v>
+        <v>692.1288500000001</v>
       </c>
       <c r="E42">
-        <v>2321.3584</v>
+        <v>981.2898</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1383,13 +1378,13 @@
         <v>47.8</v>
       </c>
       <c r="C43">
-        <v>1670.7402825</v>
+        <v>918.1936234999999</v>
       </c>
       <c r="D43">
-        <v>842.7413</v>
+        <v>773.75134</v>
       </c>
       <c r="E43">
-        <v>2986.6917</v>
+        <v>1080.3348</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1407,13 +1402,13 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>2041.2629655</v>
+        <v>1116.587136675</v>
       </c>
       <c r="D44">
-        <v>1168.8055</v>
+        <v>928.29517</v>
       </c>
       <c r="E44">
-        <v>3078.355</v>
+        <v>1339.5244</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1431,13 +1426,13 @@
         <v>59.2</v>
       </c>
       <c r="C45">
-        <v>1465.7026735</v>
+        <v>856.07909255</v>
       </c>
       <c r="D45">
-        <v>873.1667</v>
+        <v>696.3374</v>
       </c>
       <c r="E45">
-        <v>1978.9503</v>
+        <v>1016.688</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1455,13 +1450,13 @@
         <v>61.6</v>
       </c>
       <c r="C46">
-        <v>1295.4950271</v>
+        <v>871.76320685</v>
       </c>
       <c r="D46">
-        <v>791.07184</v>
+        <v>675.1749</v>
       </c>
       <c r="E46">
-        <v>1674.0892</v>
+        <v>1071.8262</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1479,13 +1474,13 @@
         <v>66</v>
       </c>
       <c r="C47">
-        <v>1440.3698765</v>
+        <v>981.69322775</v>
       </c>
       <c r="D47">
-        <v>896.3381000000001</v>
+        <v>842.3031999999999</v>
       </c>
       <c r="E47">
-        <v>2015.7931</v>
+        <v>1211.6248</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1503,13 +1498,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C48">
-        <v>1471.8787255</v>
+        <v>1092.571379775</v>
       </c>
       <c r="D48">
-        <v>958.133</v>
+        <v>945.5184</v>
       </c>
       <c r="E48">
-        <v>1932.4503</v>
+        <v>1299.838</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1527,13 +1522,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C49">
-        <v>1277.38960185</v>
+        <v>948.2770947499999</v>
       </c>
       <c r="D49">
-        <v>743.2728</v>
+        <v>809.3791</v>
       </c>
       <c r="E49">
-        <v>1973.5233</v>
+        <v>1207.6156</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1551,13 +1546,13 @@
         <v>86.3</v>
       </c>
       <c r="C50">
-        <v>1143.41901795</v>
+        <v>833.186261475</v>
       </c>
       <c r="D50">
-        <v>614.6517</v>
+        <v>692.9897</v>
       </c>
       <c r="E50">
-        <v>1773.2499</v>
+        <v>1109.1998</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1575,13 +1570,13 @@
         <v>89.8</v>
       </c>
       <c r="C51">
-        <v>968.21192265</v>
+        <v>634.8811147</v>
       </c>
       <c r="D51">
-        <v>527.9312</v>
+        <v>489.5649</v>
       </c>
       <c r="E51">
-        <v>1425.1571</v>
+        <v>750.0218</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1599,13 +1594,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C52">
-        <v>1043.24554805</v>
+        <v>592.141686675</v>
       </c>
       <c r="D52">
-        <v>515.1823000000001</v>
+        <v>475.57474</v>
       </c>
       <c r="E52">
-        <v>1705.2753</v>
+        <v>724.6315</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1623,13 +1618,13 @@
         <v>100.5</v>
       </c>
       <c r="C53">
-        <v>841.7843093499999</v>
+        <v>588.7540032749999</v>
       </c>
       <c r="D53">
-        <v>452.61768</v>
+        <v>498.79175</v>
       </c>
       <c r="E53">
-        <v>1253.5234</v>
+        <v>792.92615</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1647,13 +1642,13 @@
         <v>113</v>
       </c>
       <c r="C54">
-        <v>463.2050847</v>
+        <v>318.7350445</v>
       </c>
       <c r="D54">
-        <v>302.71356</v>
+        <v>247.9667</v>
       </c>
       <c r="E54">
-        <v>585.7809</v>
+        <v>388.81787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1668,21 +1663,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C55">
-        <v>342.78807615</v>
+        <v>219.783189075</v>
       </c>
       <c r="D55">
-        <v>231.62863</v>
+        <v>168.28952</v>
       </c>
       <c r="E55">
-        <v>487.0977</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>294.30402</v>
       </c>
     </row>
     <row r="56">
@@ -1695,13 +1685,13 @@
         <v>129.4</v>
       </c>
       <c r="C56">
-        <v>237.9750013</v>
+        <v>174.046073275</v>
       </c>
       <c r="D56">
-        <v>163.07155</v>
+        <v>133.15564</v>
       </c>
       <c r="E56">
-        <v>354.02057</v>
+        <v>227.32791</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1719,13 +1709,13 @@
         <v>132.6</v>
       </c>
       <c r="C57">
-        <v>186.7297192</v>
+        <v>118.8860460825</v>
       </c>
       <c r="D57">
-        <v>128.11044</v>
+        <v>91.74424999999999</v>
       </c>
       <c r="E57">
-        <v>275.46735</v>
+        <v>156.75223</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1743,13 +1733,13 @@
         <v>139.8</v>
       </c>
       <c r="C58">
-        <v>151.76968337</v>
+        <v>105.2219983675</v>
       </c>
       <c r="D58">
-        <v>108.256454</v>
+        <v>73.68371</v>
       </c>
       <c r="E58">
-        <v>213.30354</v>
+        <v>153.09584</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1767,13 +1757,13 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>74.80350477500001</v>
+        <v>75.86070037</v>
       </c>
       <c r="D59">
-        <v>50.591488</v>
+        <v>55.66899</v>
       </c>
       <c r="E59">
-        <v>109.18322</v>
+        <v>109.82052</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1784,20 +1774,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B60">
         <v>2.58</v>
       </c>
       <c r="C60">
-        <v>486.00009125</v>
+        <v>551.4853944</v>
       </c>
       <c r="D60">
-        <v>470.99985</v>
+        <v>516.2210700000001</v>
       </c>
       <c r="E60">
-        <v>501.0003</v>
+        <v>584.75073</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1808,20 +1798,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B61">
         <v>5.333</v>
       </c>
       <c r="C61">
-        <v>497.91025505</v>
+        <v>695.40276775</v>
       </c>
       <c r="D61">
-        <v>413.86505</v>
+        <v>546.2052</v>
       </c>
       <c r="E61">
-        <v>583.99915</v>
+        <v>794.0696</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1832,20 +1822,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B62">
         <v>7.246</v>
       </c>
       <c r="C62">
-        <v>504.17294825</v>
+        <v>551.06563295</v>
       </c>
       <c r="D62">
-        <v>399.26447</v>
+        <v>454.70743</v>
       </c>
       <c r="E62">
-        <v>637.5734</v>
+        <v>620.71466</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1856,20 +1846,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B63">
         <v>11.63</v>
       </c>
       <c r="C63">
-        <v>522.42730495</v>
+        <v>556.92717785</v>
       </c>
       <c r="D63">
-        <v>419.88644</v>
+        <v>465.23602</v>
       </c>
       <c r="E63">
-        <v>643.1138999999999</v>
+        <v>643.4431</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1880,20 +1870,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B64">
         <v>13.82</v>
       </c>
       <c r="C64">
-        <v>544.26085025</v>
+        <v>579.795300275</v>
       </c>
       <c r="D64">
-        <v>436.50955</v>
+        <v>508.61984</v>
       </c>
       <c r="E64">
-        <v>670.76666</v>
+        <v>666.4517</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1904,20 +1894,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B65">
         <v>15.97</v>
       </c>
       <c r="C65">
-        <v>556.71863455</v>
+        <v>602.1792751</v>
       </c>
       <c r="D65">
-        <v>448.0571</v>
+        <v>542.2861</v>
       </c>
       <c r="E65">
-        <v>665.32697</v>
+        <v>670.3209000000001</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1928,20 +1918,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B66">
         <v>20.44</v>
       </c>
       <c r="C66">
-        <v>562.35143105</v>
+        <v>634.4523394</v>
       </c>
       <c r="D66">
-        <v>455.7821</v>
+        <v>565.2288</v>
       </c>
       <c r="E66">
-        <v>660.1554599999999</v>
+        <v>711.2229</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1952,20 +1942,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B67">
         <v>23.03</v>
       </c>
       <c r="C67">
-        <v>555.1326322</v>
+        <v>622.565413775</v>
       </c>
       <c r="D67">
-        <v>432.0783</v>
+        <v>533.6893</v>
       </c>
       <c r="E67">
-        <v>702.5436999999999</v>
+        <v>731.20935</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1976,20 +1966,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B68">
         <v>27.82</v>
       </c>
       <c r="C68">
-        <v>559.30760545</v>
+        <v>589.7133497249999</v>
       </c>
       <c r="D68">
-        <v>434.1097</v>
+        <v>521.431</v>
       </c>
       <c r="E68">
-        <v>705.5462</v>
+        <v>695.9484</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2000,20 +1990,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B69">
         <v>33.9</v>
       </c>
       <c r="C69">
-        <v>590.5575754</v>
+        <v>544.143888125</v>
       </c>
       <c r="D69">
-        <v>458.4167</v>
+        <v>479.81555</v>
       </c>
       <c r="E69">
-        <v>731.452</v>
+        <v>650.36005</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2024,20 +2014,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B70">
         <v>37.71</v>
       </c>
       <c r="C70">
-        <v>676.0448028</v>
+        <v>719.9602694499999</v>
       </c>
       <c r="D70">
-        <v>496.2783</v>
+        <v>607.67065</v>
       </c>
       <c r="E70">
-        <v>875.8293</v>
+        <v>839.02277</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2048,20 +2038,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B71">
         <v>41.2</v>
       </c>
       <c r="C71">
-        <v>823.27164915</v>
+        <v>885.4222105</v>
       </c>
       <c r="D71">
-        <v>595.20294</v>
+        <v>732.27014</v>
       </c>
       <c r="E71">
-        <v>1135.0707</v>
+        <v>1043.9188</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2072,20 +2062,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B72">
         <v>47.8</v>
       </c>
       <c r="C72">
-        <v>910.22220455</v>
+        <v>909.215048925</v>
       </c>
       <c r="D72">
-        <v>681.0429</v>
+        <v>780.78973</v>
       </c>
       <c r="E72">
-        <v>1163.9684</v>
+        <v>1051.9451</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2096,20 +2086,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B73">
         <v>56</v>
       </c>
       <c r="C73">
-        <v>783.85014005</v>
+        <v>813.4398404250001</v>
       </c>
       <c r="D73">
-        <v>590.7963</v>
+        <v>741.75116</v>
       </c>
       <c r="E73">
-        <v>981.4256</v>
+        <v>929.51715</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2120,20 +2110,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B74">
         <v>59.2</v>
       </c>
       <c r="C74">
-        <v>572.68727785</v>
+        <v>602.695344925</v>
       </c>
       <c r="D74">
-        <v>404.87173</v>
+        <v>551.8416999999999</v>
       </c>
       <c r="E74">
-        <v>759.18805</v>
+        <v>677.33704</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2144,20 +2134,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B75">
         <v>61.6</v>
       </c>
       <c r="C75">
-        <v>490.70670285</v>
+        <v>516.72164005</v>
       </c>
       <c r="D75">
-        <v>351.45502</v>
+        <v>412.7733</v>
       </c>
       <c r="E75">
-        <v>663.70917</v>
+        <v>611.15356</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2168,20 +2158,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B76">
         <v>66</v>
       </c>
       <c r="C76">
-        <v>493.27374525</v>
+        <v>563.2962782</v>
       </c>
       <c r="D76">
-        <v>372.2692</v>
+        <v>477.79327</v>
       </c>
       <c r="E76">
-        <v>630.9299999999999</v>
+        <v>652.164</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2192,20 +2182,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B77">
         <v>72.09999999999999</v>
       </c>
       <c r="C77">
-        <v>569.5325935</v>
+        <v>659.2625409</v>
       </c>
       <c r="D77">
-        <v>449.58087</v>
+        <v>566.39856</v>
       </c>
       <c r="E77">
-        <v>745.1348</v>
+        <v>818.9265</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2216,20 +2206,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B78">
         <v>83.59999999999999</v>
       </c>
       <c r="C78">
-        <v>687.4899882</v>
+        <v>863.6759147499999</v>
       </c>
       <c r="D78">
-        <v>513.4489</v>
+        <v>754.80853</v>
       </c>
       <c r="E78">
-        <v>873.8902</v>
+        <v>1000.72205</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2240,20 +2230,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B79">
         <v>86.3</v>
       </c>
       <c r="C79">
-        <v>511.4603585</v>
+        <v>605.5392323</v>
       </c>
       <c r="D79">
-        <v>334.52542</v>
+        <v>500.55603</v>
       </c>
       <c r="E79">
-        <v>701.2298</v>
+        <v>781.08575</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2264,20 +2254,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B80">
         <v>89.8</v>
       </c>
       <c r="C80">
-        <v>453.91649775</v>
+        <v>450.167175475</v>
       </c>
       <c r="D80">
-        <v>330.69028</v>
+        <v>353.88718</v>
       </c>
       <c r="E80">
-        <v>664.1618999999999</v>
+        <v>571.21674</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2288,20 +2278,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B81">
         <v>93.90000000000001</v>
       </c>
       <c r="C81">
-        <v>505.40460245</v>
+        <v>592.162146775</v>
       </c>
       <c r="D81">
-        <v>360.86792</v>
+        <v>512.22394</v>
       </c>
       <c r="E81">
-        <v>664.1074</v>
+        <v>712.3414299999999</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2312,20 +2302,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B82">
         <v>100.5</v>
       </c>
       <c r="C82">
-        <v>484.40461135</v>
+        <v>781.4548505499999</v>
       </c>
       <c r="D82">
-        <v>386.92944</v>
+        <v>687.78766</v>
       </c>
       <c r="E82">
-        <v>578.2791</v>
+        <v>884.5632000000001</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2336,20 +2326,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B83">
         <v>113</v>
       </c>
       <c r="C83">
-        <v>417.05005075</v>
+        <v>640.022242825</v>
       </c>
       <c r="D83">
-        <v>321.38202</v>
+        <v>488.08875</v>
       </c>
       <c r="E83">
-        <v>528.347</v>
+        <v>775.3122</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2360,44 +2350,39 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B84">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C84">
-        <v>230.62237675</v>
+        <v>357.8657083</v>
       </c>
       <c r="D84">
-        <v>190.60628</v>
+        <v>276.24954</v>
       </c>
       <c r="E84">
-        <v>289.91327</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>507.2998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B85">
         <v>129.4</v>
       </c>
       <c r="C85">
-        <v>132.472195155</v>
+        <v>262.4819101</v>
       </c>
       <c r="D85">
-        <v>107.55105</v>
+        <v>193.14722</v>
       </c>
       <c r="E85">
-        <v>191.29796</v>
+        <v>406.1241</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2408,20 +2393,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B86">
         <v>132.6</v>
       </c>
       <c r="C86">
-        <v>121.74153643</v>
+        <v>252.6347465</v>
       </c>
       <c r="D86">
-        <v>88.575</v>
+        <v>177.47418</v>
       </c>
       <c r="E86">
-        <v>225.19365</v>
+        <v>457.09525</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2432,43 +2417,48 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B87">
-        <v>139</v>
+        <v>139.8</v>
       </c>
       <c r="C87">
-        <v>232.6417912</v>
+        <v>370.46595915</v>
       </c>
       <c r="D87">
-        <v>143.12784</v>
+        <v>245.26112</v>
       </c>
       <c r="E87">
-        <v>287.14716</v>
+        <v>633.77094</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Valanginian</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B88">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="C88">
-        <v>9.827466075405001</v>
+        <v>23.650879055</v>
       </c>
       <c r="D88">
-        <v>0.027650714</v>
+        <v>6.957071</v>
       </c>
       <c r="E88">
-        <v>30.088915</v>
+        <v>57.288696</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Valanginian</t>
+          <t>Berriasian</t>
         </is>
       </c>
     </row>
@@ -2482,13 +2472,13 @@
         <v>2.58</v>
       </c>
       <c r="C89">
-        <v>278.0000012</v>
+        <v>316.0476975</v>
       </c>
       <c r="D89">
-        <v>277.99985</v>
+        <v>220.48256</v>
       </c>
       <c r="E89">
-        <v>278.00012</v>
+        <v>385.96378</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2506,13 +2496,13 @@
         <v>5.333</v>
       </c>
       <c r="C90">
-        <v>301.7420259</v>
+        <v>401.80189855</v>
       </c>
       <c r="D90">
-        <v>253.95273</v>
+        <v>313.574</v>
       </c>
       <c r="E90">
-        <v>389.51407</v>
+        <v>461.39355</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2530,13 +2520,13 @@
         <v>7.246</v>
       </c>
       <c r="C91">
-        <v>332.420292</v>
+        <v>342.761306675</v>
       </c>
       <c r="D91">
-        <v>285.83537</v>
+        <v>256.54114</v>
       </c>
       <c r="E91">
-        <v>420.38272</v>
+        <v>433.8459</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2554,13 +2544,13 @@
         <v>11.63</v>
       </c>
       <c r="C92">
-        <v>305.06620015</v>
+        <v>317.776491</v>
       </c>
       <c r="D92">
-        <v>246.94319</v>
+        <v>209.92978</v>
       </c>
       <c r="E92">
-        <v>386.88028</v>
+        <v>412.08563</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2578,13 +2568,13 @@
         <v>13.82</v>
       </c>
       <c r="C93">
-        <v>275.59556705</v>
+        <v>274.7948901</v>
       </c>
       <c r="D93">
-        <v>232.74713</v>
+        <v>186.59116</v>
       </c>
       <c r="E93">
-        <v>340.60495</v>
+        <v>347.19388</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2602,13 +2592,13 @@
         <v>15.97</v>
       </c>
       <c r="C94">
-        <v>269.70488835</v>
+        <v>262.41029015</v>
       </c>
       <c r="D94">
-        <v>226.51917</v>
+        <v>179.00972</v>
       </c>
       <c r="E94">
-        <v>346.21466</v>
+        <v>324.04254</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2626,13 +2616,13 @@
         <v>20.44</v>
       </c>
       <c r="C95">
-        <v>278.5443403</v>
+        <v>272.622868675</v>
       </c>
       <c r="D95">
-        <v>224.73233</v>
+        <v>197.8509</v>
       </c>
       <c r="E95">
-        <v>351.55905</v>
+        <v>330.14743</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2650,13 +2640,13 @@
         <v>23.03</v>
       </c>
       <c r="C96">
-        <v>259.43724565</v>
+        <v>248.2497331</v>
       </c>
       <c r="D96">
-        <v>201.65974</v>
+        <v>177.61467</v>
       </c>
       <c r="E96">
-        <v>321.07004</v>
+        <v>313.64566</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2674,13 +2664,13 @@
         <v>27.82</v>
       </c>
       <c r="C97">
-        <v>246.22186785</v>
+        <v>227.267576175</v>
       </c>
       <c r="D97">
-        <v>205.18506</v>
+        <v>169.28949</v>
       </c>
       <c r="E97">
-        <v>286.8529</v>
+        <v>284.64777</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2698,13 +2688,13 @@
         <v>33.9</v>
       </c>
       <c r="C98">
-        <v>264.6610441</v>
+        <v>215.834883675</v>
       </c>
       <c r="D98">
-        <v>220.98854</v>
+        <v>159.54706</v>
       </c>
       <c r="E98">
-        <v>317.86777</v>
+        <v>258.75827</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2722,13 +2712,13 @@
         <v>37.71</v>
       </c>
       <c r="C99">
-        <v>300.0459566</v>
+        <v>278.513979475</v>
       </c>
       <c r="D99">
-        <v>240.12685</v>
+        <v>208.23431</v>
       </c>
       <c r="E99">
-        <v>389.284</v>
+        <v>321.59378</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2746,13 +2736,13 @@
         <v>41.2</v>
       </c>
       <c r="C100">
-        <v>325.07775925</v>
+        <v>327.710213025</v>
       </c>
       <c r="D100">
-        <v>264.56955</v>
+        <v>236.18053</v>
       </c>
       <c r="E100">
-        <v>403.5643</v>
+        <v>398.84042</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2770,13 +2760,13 @@
         <v>47.8</v>
       </c>
       <c r="C101">
-        <v>355.51205095</v>
+        <v>342.6696977</v>
       </c>
       <c r="D101">
-        <v>278.53197</v>
+        <v>253.46507</v>
       </c>
       <c r="E101">
-        <v>424.0081</v>
+        <v>399.29404</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2794,13 +2784,13 @@
         <v>56</v>
       </c>
       <c r="C102">
-        <v>332.4775013</v>
+        <v>323.624814325</v>
       </c>
       <c r="D102">
-        <v>281.24785</v>
+        <v>251.48914</v>
       </c>
       <c r="E102">
-        <v>412.5136</v>
+        <v>370.59897</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2818,13 +2808,13 @@
         <v>59.2</v>
       </c>
       <c r="C103">
-        <v>241.77318255</v>
+        <v>234.70990045</v>
       </c>
       <c r="D103">
-        <v>198.5934</v>
+        <v>185.82915</v>
       </c>
       <c r="E103">
-        <v>292.74408</v>
+        <v>276.80536</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2842,13 +2832,13 @@
         <v>61.6</v>
       </c>
       <c r="C104">
-        <v>204.67169759</v>
+        <v>196.860603975</v>
       </c>
       <c r="D104">
-        <v>164.293365</v>
+        <v>147.60861</v>
       </c>
       <c r="E104">
-        <v>254.63539</v>
+        <v>239.56096</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2866,13 +2856,13 @@
         <v>66</v>
       </c>
       <c r="C105">
-        <v>184.313494655</v>
+        <v>179.889341525</v>
       </c>
       <c r="D105">
-        <v>155.77908</v>
+        <v>139.41028</v>
       </c>
       <c r="E105">
-        <v>226.95665</v>
+        <v>225.12852</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2890,13 +2880,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C106">
-        <v>174.57734152</v>
+        <v>157.9516796225</v>
       </c>
       <c r="D106">
-        <v>140.608734</v>
+        <v>113.58225</v>
       </c>
       <c r="E106">
-        <v>224.66083</v>
+        <v>206.72578</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2914,13 +2904,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C107">
-        <v>221.42870917</v>
+        <v>188.5396274</v>
       </c>
       <c r="D107">
-        <v>178.54953</v>
+        <v>151.55992</v>
       </c>
       <c r="E107">
-        <v>268.80373</v>
+        <v>244.2475</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2938,13 +2928,13 @@
         <v>86.3</v>
       </c>
       <c r="C108">
-        <v>190.167432925</v>
+        <v>160.536306325</v>
       </c>
       <c r="D108">
-        <v>155.917854</v>
+        <v>132.54166</v>
       </c>
       <c r="E108">
-        <v>233.88547</v>
+        <v>203.31445</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2962,13 +2952,13 @@
         <v>89.8</v>
       </c>
       <c r="C109">
-        <v>164.19042792</v>
+        <v>130.4821823625</v>
       </c>
       <c r="D109">
-        <v>141.85948</v>
+        <v>103.63797</v>
       </c>
       <c r="E109">
-        <v>186.38553</v>
+        <v>167.39232</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2986,13 +2976,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C110">
-        <v>145.876383795</v>
+        <v>108.290022285</v>
       </c>
       <c r="D110">
-        <v>125.299675</v>
+        <v>83.6773</v>
       </c>
       <c r="E110">
-        <v>163.94858</v>
+        <v>138.57718</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3010,13 +3000,13 @@
         <v>100.5</v>
       </c>
       <c r="C111">
-        <v>128.53260917</v>
+        <v>89.51792627499999</v>
       </c>
       <c r="D111">
-        <v>110.3649</v>
+        <v>69.72014</v>
       </c>
       <c r="E111">
-        <v>148.187355</v>
+        <v>114.54025</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3034,13 +3024,13 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>109.8251558</v>
+        <v>69.609247045</v>
       </c>
       <c r="D112">
-        <v>94.846745</v>
+        <v>50.198902</v>
       </c>
       <c r="E112">
-        <v>123.7912</v>
+        <v>90.67755</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3055,21 +3045,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C113">
-        <v>93.96561746499999</v>
+        <v>47.165566355</v>
       </c>
       <c r="D113">
-        <v>80.725111</v>
+        <v>35.364876</v>
       </c>
       <c r="E113">
-        <v>107.23768</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>58.65934</v>
       </c>
     </row>
     <row r="114">
@@ -3082,13 +3067,13 @@
         <v>129.4</v>
       </c>
       <c r="C114">
-        <v>85.93199772</v>
+        <v>39.9421583775</v>
       </c>
       <c r="D114">
-        <v>73.62441</v>
+        <v>29.790709</v>
       </c>
       <c r="E114">
-        <v>98.44466</v>
+        <v>49.916428</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3106,13 +3091,13 @@
         <v>132.6</v>
       </c>
       <c r="C115">
-        <v>89.82741034999999</v>
+        <v>40.5715851</v>
       </c>
       <c r="D115">
-        <v>75.738314</v>
+        <v>32.703983</v>
       </c>
       <c r="E115">
-        <v>114.52032</v>
+        <v>50.050488</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3130,13 +3115,13 @@
         <v>139.8</v>
       </c>
       <c r="C116">
-        <v>1.28596142445</v>
+        <v>64.204949355</v>
       </c>
       <c r="D116">
-        <v>0.11145496</v>
+        <v>54.778053</v>
       </c>
       <c r="E116">
-        <v>2.573825</v>
+        <v>79.503174</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3154,13 +3139,13 @@
         <v>145</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>62.9161583</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>53.285088</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>77.753525</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3178,13 +3163,13 @@
         <v>2.58</v>
       </c>
       <c r="C118">
-        <v>5.9999994975</v>
+        <v>12.93660980875</v>
       </c>
       <c r="D118">
-        <v>5.999998</v>
+        <v>8.933444</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>23.36479</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3202,13 +3187,13 @@
         <v>5.333</v>
       </c>
       <c r="C119">
-        <v>7.2231008315</v>
+        <v>17.16441262</v>
       </c>
       <c r="D119">
-        <v>5.141385</v>
+        <v>11.962807</v>
       </c>
       <c r="E119">
-        <v>12.920384</v>
+        <v>29.132133</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3226,13 +3211,13 @@
         <v>7.246</v>
       </c>
       <c r="C120">
-        <v>7.611313396</v>
+        <v>13.07936357</v>
       </c>
       <c r="D120">
-        <v>5.0535593</v>
+        <v>10.006943</v>
       </c>
       <c r="E120">
-        <v>12.347156</v>
+        <v>19.688915</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3250,13 +3235,13 @@
         <v>11.63</v>
       </c>
       <c r="C121">
-        <v>8.176607843499999</v>
+        <v>15.17726469375</v>
       </c>
       <c r="D121">
-        <v>5.1597714</v>
+        <v>10.867558</v>
       </c>
       <c r="E121">
-        <v>13.603906</v>
+        <v>22.774416</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3274,13 +3259,13 @@
         <v>13.82</v>
       </c>
       <c r="C122">
-        <v>8.538097677</v>
+        <v>17.5812191425</v>
       </c>
       <c r="D122">
-        <v>5.31575</v>
+        <v>12.112971</v>
       </c>
       <c r="E122">
-        <v>17.339512</v>
+        <v>26.192316</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3298,13 +3283,13 @@
         <v>15.97</v>
       </c>
       <c r="C123">
-        <v>8.339292386</v>
+        <v>17.59006402</v>
       </c>
       <c r="D123">
-        <v>5.383503</v>
+        <v>12.849285</v>
       </c>
       <c r="E123">
-        <v>17.071114</v>
+        <v>26.36653</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3322,13 +3307,13 @@
         <v>20.44</v>
       </c>
       <c r="C124">
-        <v>8.276794039</v>
+        <v>17.960128055</v>
       </c>
       <c r="D124">
-        <v>5.4255905</v>
+        <v>12.586459</v>
       </c>
       <c r="E124">
-        <v>16.970785</v>
+        <v>26.067373</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3346,13 +3331,13 @@
         <v>23.03</v>
       </c>
       <c r="C125">
-        <v>8.270006791</v>
+        <v>18.01149634875</v>
       </c>
       <c r="D125">
-        <v>5.2591314</v>
+        <v>12.93121</v>
       </c>
       <c r="E125">
-        <v>15.814186</v>
+        <v>26.085638</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3370,13 +3355,13 @@
         <v>27.82</v>
       </c>
       <c r="C126">
-        <v>8.081198043500001</v>
+        <v>17.37654580875</v>
       </c>
       <c r="D126">
-        <v>5.102342</v>
+        <v>13.479788</v>
       </c>
       <c r="E126">
-        <v>15.051039</v>
+        <v>24.233038</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3394,13 +3379,13 @@
         <v>33.9</v>
       </c>
       <c r="C127">
-        <v>7.818544692</v>
+        <v>16.670191985</v>
       </c>
       <c r="D127">
-        <v>5.1071105</v>
+        <v>12.457873</v>
       </c>
       <c r="E127">
-        <v>14.988915</v>
+        <v>23.99639</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3418,13 +3403,13 @@
         <v>37.71</v>
       </c>
       <c r="C128">
-        <v>7.5824355835</v>
+        <v>15.71694323625</v>
       </c>
       <c r="D128">
-        <v>4.8568344</v>
+        <v>11.636086</v>
       </c>
       <c r="E128">
-        <v>13.334449</v>
+        <v>21.062086</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3442,13 +3427,13 @@
         <v>41.2</v>
       </c>
       <c r="C129">
-        <v>7.3817329405</v>
+        <v>15.06265718875</v>
       </c>
       <c r="D129">
-        <v>4.6861033</v>
+        <v>10.741654</v>
       </c>
       <c r="E129">
-        <v>13.04488</v>
+        <v>20.5386</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3466,13 +3451,13 @@
         <v>47.8</v>
       </c>
       <c r="C130">
-        <v>8.134733929499999</v>
+        <v>18.0687798475</v>
       </c>
       <c r="D130">
-        <v>5.027542</v>
+        <v>13.417791</v>
       </c>
       <c r="E130">
-        <v>16.13258</v>
+        <v>24.306425</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3490,13 +3475,13 @@
         <v>56</v>
       </c>
       <c r="C131">
-        <v>9.2866632935</v>
+        <v>22.8228791625</v>
       </c>
       <c r="D131">
-        <v>5.5644245</v>
+        <v>15.844452</v>
       </c>
       <c r="E131">
-        <v>20.326975</v>
+        <v>28.730707</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3514,13 +3499,13 @@
         <v>59.2</v>
       </c>
       <c r="C132">
-        <v>8.186382134</v>
+        <v>19.3875714075</v>
       </c>
       <c r="D132">
-        <v>5.225131</v>
+        <v>15.682148</v>
       </c>
       <c r="E132">
-        <v>18.46867</v>
+        <v>25.839392</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3538,13 +3523,13 @@
         <v>61.6</v>
       </c>
       <c r="C133">
-        <v>8.075768264000001</v>
+        <v>20.09085703</v>
       </c>
       <c r="D133">
-        <v>5.2213573</v>
+        <v>15.984617</v>
       </c>
       <c r="E133">
-        <v>19.769314</v>
+        <v>28.140715</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3562,13 +3547,13 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>8.059097037500001</v>
+        <v>21.8464108475</v>
       </c>
       <c r="D134">
-        <v>5.1171374</v>
+        <v>17.325203</v>
       </c>
       <c r="E134">
-        <v>19.681099</v>
+        <v>30.046618</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3586,13 +3571,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C135">
-        <v>8.449298466</v>
+        <v>24.4637701125</v>
       </c>
       <c r="D135">
-        <v>5.355983</v>
+        <v>20.211037</v>
       </c>
       <c r="E135">
-        <v>25.436213</v>
+        <v>32.91538</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3610,13 +3595,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C136">
-        <v>10.426004143</v>
+        <v>33.5098857025</v>
       </c>
       <c r="D136">
-        <v>6.7059054</v>
+        <v>27.430044</v>
       </c>
       <c r="E136">
-        <v>23.987968</v>
+        <v>42.414806</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3634,13 +3619,13 @@
         <v>86.3</v>
       </c>
       <c r="C137">
-        <v>7.4266117075</v>
+        <v>20.324666475</v>
       </c>
       <c r="D137">
-        <v>4.724016</v>
+        <v>17.25231</v>
       </c>
       <c r="E137">
-        <v>13.568124</v>
+        <v>27.30588</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3658,13 +3643,13 @@
         <v>89.8</v>
       </c>
       <c r="C138">
-        <v>6.674490142</v>
+        <v>15.41241563875</v>
       </c>
       <c r="D138">
-        <v>4.161789</v>
+        <v>13.257395</v>
       </c>
       <c r="E138">
-        <v>10.8054285</v>
+        <v>19.984816</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3682,13 +3667,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C139">
-        <v>6.259883622</v>
+        <v>12.99924715125</v>
       </c>
       <c r="D139">
-        <v>3.7976685</v>
+        <v>10.772801</v>
       </c>
       <c r="E139">
-        <v>9.560335</v>
+        <v>17.18964</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3706,13 +3691,13 @@
         <v>100.5</v>
       </c>
       <c r="C140">
-        <v>5.8223974855</v>
+        <v>13.18987865125</v>
       </c>
       <c r="D140">
-        <v>3.594956</v>
+        <v>11.081347</v>
       </c>
       <c r="E140">
-        <v>8.708256</v>
+        <v>17.540174</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3730,13 +3715,13 @@
         <v>113</v>
       </c>
       <c r="C141">
-        <v>5.532888557</v>
+        <v>11.24285799625</v>
       </c>
       <c r="D141">
-        <v>3.3111944</v>
+        <v>9.543801</v>
       </c>
       <c r="E141">
-        <v>8.308366299999999</v>
+        <v>14.297297</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3751,21 +3736,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C142">
-        <v>5.404117029</v>
+        <v>10.0745787</v>
       </c>
       <c r="D142">
-        <v>3.2351184</v>
+        <v>8.802372999999999</v>
       </c>
       <c r="E142">
-        <v>8.273866999999999</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>12.39214</v>
       </c>
     </row>
     <row r="143">
@@ -3778,13 +3758,13 @@
         <v>129.4</v>
       </c>
       <c r="C143">
-        <v>5.122805269</v>
+        <v>11.10963046375</v>
       </c>
       <c r="D143">
-        <v>2.938514</v>
+        <v>8.626385000000001</v>
       </c>
       <c r="E143">
-        <v>8.220114000000001</v>
+        <v>14.187642</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3802,13 +3782,13 @@
         <v>132.6</v>
       </c>
       <c r="C144">
-        <v>6.2152421955</v>
+        <v>13.96709657</v>
       </c>
       <c r="D144">
-        <v>3.2808762</v>
+        <v>10.952755</v>
       </c>
       <c r="E144">
-        <v>12.35478</v>
+        <v>17.496153</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3826,13 +3806,13 @@
         <v>139.8</v>
       </c>
       <c r="C145">
-        <v>0.148149603545</v>
+        <v>35.500633445</v>
       </c>
       <c r="D145">
-        <v>0.0057297945</v>
+        <v>30.562843</v>
       </c>
       <c r="E145">
-        <v>0.55854404</v>
+        <v>42.280453</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3850,13 +3830,13 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>44.35535121</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>36.619576</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>52.523098</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3874,13 +3854,13 @@
         <v>2.58</v>
       </c>
       <c r="C147">
-        <v>14.99999993</v>
+        <v>24.0301924475</v>
       </c>
       <c r="D147">
-        <v>14.999995</v>
+        <v>19.60486</v>
       </c>
       <c r="E147">
-        <v>15.000004</v>
+        <v>32.774864</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3898,13 +3878,13 @@
         <v>5.333</v>
       </c>
       <c r="C148">
-        <v>19.399518565</v>
+        <v>57.6009452325</v>
       </c>
       <c r="D148">
-        <v>16.653318</v>
+        <v>41.949368</v>
       </c>
       <c r="E148">
-        <v>34.47662</v>
+        <v>68.43088</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3922,13 +3902,13 @@
         <v>7.246</v>
       </c>
       <c r="C149">
-        <v>20.999651835</v>
+        <v>55.607976215</v>
       </c>
       <c r="D149">
-        <v>16.517292</v>
+        <v>42.178524</v>
       </c>
       <c r="E149">
-        <v>36.129944</v>
+        <v>65.9712</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3946,13 +3926,13 @@
         <v>11.63</v>
       </c>
       <c r="C150">
-        <v>22.034639555</v>
+        <v>59.8819333475</v>
       </c>
       <c r="D150">
-        <v>17.405619</v>
+        <v>46.238277</v>
       </c>
       <c r="E150">
-        <v>37.76815</v>
+        <v>69.450874</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3970,13 +3950,13 @@
         <v>13.82</v>
       </c>
       <c r="C151">
-        <v>25.090443105</v>
+        <v>77.02495306</v>
       </c>
       <c r="D151">
-        <v>18.701801</v>
+        <v>57.574844</v>
       </c>
       <c r="E151">
-        <v>43.20521</v>
+        <v>95.44732</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3994,13 +3974,13 @@
         <v>15.97</v>
       </c>
       <c r="C152">
-        <v>26.13922034</v>
+        <v>87.447099795</v>
       </c>
       <c r="D152">
-        <v>21.629204</v>
+        <v>71.16368</v>
       </c>
       <c r="E152">
-        <v>43.82774</v>
+        <v>103.513855</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4018,13 +3998,13 @@
         <v>20.44</v>
       </c>
       <c r="C153">
-        <v>25.989258455</v>
+        <v>94.2399818575</v>
       </c>
       <c r="D153">
-        <v>22.162138</v>
+        <v>81.80734</v>
       </c>
       <c r="E153">
-        <v>44.42447</v>
+        <v>110.64459</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4042,13 +4022,13 @@
         <v>23.03</v>
       </c>
       <c r="C154">
-        <v>25.97086714</v>
+        <v>96.80254793</v>
       </c>
       <c r="D154">
-        <v>21.603956</v>
+        <v>82.61597999999999</v>
       </c>
       <c r="E154">
-        <v>43.188026</v>
+        <v>112.958694</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4066,13 +4046,13 @@
         <v>27.82</v>
       </c>
       <c r="C155">
-        <v>28.94062247</v>
+        <v>107.3362521125</v>
       </c>
       <c r="D155">
-        <v>23.763187</v>
+        <v>94.82716000000001</v>
       </c>
       <c r="E155">
-        <v>51.853176</v>
+        <v>127.72041</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4090,13 +4070,13 @@
         <v>33.9</v>
       </c>
       <c r="C156">
-        <v>30.84543354</v>
+        <v>106.8911643975</v>
       </c>
       <c r="D156">
-        <v>25.452755</v>
+        <v>96.534195</v>
       </c>
       <c r="E156">
-        <v>59.49314</v>
+        <v>125.37648</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4114,13 +4094,13 @@
         <v>37.71</v>
       </c>
       <c r="C157">
-        <v>34.432522775</v>
+        <v>134.6889392975</v>
       </c>
       <c r="D157">
-        <v>26.48195</v>
+        <v>117.3863</v>
       </c>
       <c r="E157">
-        <v>66.527565</v>
+        <v>155.52751</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4138,13 +4118,13 @@
         <v>41.2</v>
       </c>
       <c r="C158">
-        <v>36.78612792</v>
+        <v>165.6768967</v>
       </c>
       <c r="D158">
-        <v>29.852158</v>
+        <v>144.03207</v>
       </c>
       <c r="E158">
-        <v>69.4541</v>
+        <v>188.88533</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4162,13 +4142,13 @@
         <v>47.8</v>
       </c>
       <c r="C159">
-        <v>34.95978076</v>
+        <v>157.436819825</v>
       </c>
       <c r="D159">
-        <v>28.9533</v>
+        <v>132.36743</v>
       </c>
       <c r="E159">
-        <v>66.188515</v>
+        <v>180.09673</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4186,13 +4166,13 @@
         <v>56</v>
       </c>
       <c r="C160">
-        <v>31.940791025</v>
+        <v>139.3449472775</v>
       </c>
       <c r="D160">
-        <v>26.566513</v>
+        <v>122.65393</v>
       </c>
       <c r="E160">
-        <v>59.53859</v>
+        <v>152.11993</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4210,13 +4190,13 @@
         <v>59.2</v>
       </c>
       <c r="C161">
-        <v>26.009141575</v>
+        <v>109.40097501</v>
       </c>
       <c r="D161">
-        <v>22.172745</v>
+        <v>94.94353</v>
       </c>
       <c r="E161">
-        <v>45.899128</v>
+        <v>120.85155</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4234,13 +4214,13 @@
         <v>61.6</v>
       </c>
       <c r="C162">
-        <v>23.5420160375</v>
+        <v>97.56534505250001</v>
       </c>
       <c r="D162">
-        <v>19.6249695</v>
+        <v>82.9491</v>
       </c>
       <c r="E162">
-        <v>41.758327</v>
+        <v>117.385956</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4258,13 +4238,13 @@
         <v>66</v>
       </c>
       <c r="C163">
-        <v>23.72412822</v>
+        <v>104.068781565</v>
       </c>
       <c r="D163">
-        <v>19.841713</v>
+        <v>90.65814</v>
       </c>
       <c r="E163">
-        <v>40.80969</v>
+        <v>129.9438</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4282,13 +4262,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C164">
-        <v>26.08159414</v>
+        <v>113.1467112125</v>
       </c>
       <c r="D164">
-        <v>22.652878</v>
+        <v>95.89126</v>
       </c>
       <c r="E164">
-        <v>44.299114</v>
+        <v>151.12312</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4306,13 +4286,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C165">
-        <v>31.105933535</v>
+        <v>151.04633819</v>
       </c>
       <c r="D165">
-        <v>26.698719</v>
+        <v>118.81595</v>
       </c>
       <c r="E165">
-        <v>55.702938</v>
+        <v>190.77858</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4330,13 +4310,13 @@
         <v>86.3</v>
       </c>
       <c r="C166">
-        <v>27.90621157</v>
+        <v>114.0546399625</v>
       </c>
       <c r="D166">
-        <v>22.116512</v>
+        <v>85.404495</v>
       </c>
       <c r="E166">
-        <v>51.498577</v>
+        <v>143.16078</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4354,13 +4334,13 @@
         <v>89.8</v>
       </c>
       <c r="C167">
-        <v>29.166120705</v>
+        <v>116.927553825</v>
       </c>
       <c r="D167">
-        <v>24.268452</v>
+        <v>86.72459000000001</v>
       </c>
       <c r="E167">
-        <v>51.4955</v>
+        <v>149.8692</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4378,13 +4358,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C168">
-        <v>32.601177645</v>
+        <v>146.0972945775</v>
       </c>
       <c r="D168">
-        <v>27.840082</v>
+        <v>106.46857</v>
       </c>
       <c r="E168">
-        <v>58.423634</v>
+        <v>188.42123</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4402,13 +4382,13 @@
         <v>100.5</v>
       </c>
       <c r="C169">
-        <v>32.182356195</v>
+        <v>168.032941625</v>
       </c>
       <c r="D169">
-        <v>27.093685</v>
+        <v>132.03975</v>
       </c>
       <c r="E169">
-        <v>59.000263</v>
+        <v>202.54117</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4426,13 +4406,13 @@
         <v>113</v>
       </c>
       <c r="C170">
-        <v>26.540250065</v>
+        <v>116.2071776425</v>
       </c>
       <c r="D170">
-        <v>22.568483</v>
+        <v>94.46445</v>
       </c>
       <c r="E170">
-        <v>45.24289</v>
+        <v>141.6104</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4447,21 +4427,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C171">
-        <v>17.0320811025</v>
+        <v>45.6730236075</v>
       </c>
       <c r="D171">
-        <v>14.484548</v>
+        <v>33.728386</v>
       </c>
       <c r="E171">
-        <v>27.49845</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>59.75406</v>
       </c>
     </row>
     <row r="172">
@@ -4474,13 +4449,13 @@
         <v>129.4</v>
       </c>
       <c r="C172">
-        <v>12.4359803225</v>
+        <v>22.3358496525</v>
       </c>
       <c r="D172">
-        <v>10.125371</v>
+        <v>16.919052</v>
       </c>
       <c r="E172">
-        <v>19.191448</v>
+        <v>30.184359</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4498,13 +4473,13 @@
         <v>132.6</v>
       </c>
       <c r="C173">
-        <v>11.0273325965</v>
+        <v>11.364941345</v>
       </c>
       <c r="D173">
-        <v>8.330679999999999</v>
+        <v>9.153051</v>
       </c>
       <c r="E173">
-        <v>17.829806</v>
+        <v>15.986755</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4522,13 +4497,13 @@
         <v>139.8</v>
       </c>
       <c r="C174">
-        <v>0.065750256725</v>
+        <v>4.21882756275</v>
       </c>
       <c r="D174">
-        <v>0.008432864999999999</v>
+        <v>3.494473</v>
       </c>
       <c r="E174">
-        <v>0.17222488</v>
+        <v>5.9533873</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4546,13 +4521,13 @@
         <v>145</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.0128163886105</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>0.0011456013</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.025944829</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4570,13 +4545,13 @@
         <v>2.58</v>
       </c>
       <c r="C176">
-        <v>202.99998</v>
+        <v>201.946370675</v>
       </c>
       <c r="D176">
-        <v>202.9999</v>
+        <v>181.88962</v>
       </c>
       <c r="E176">
-        <v>203.00009</v>
+        <v>221.56157</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4594,13 +4569,13 @@
         <v>5.333</v>
       </c>
       <c r="C177">
-        <v>249.0086933</v>
+        <v>344.4875617</v>
       </c>
       <c r="D177">
-        <v>177.66458</v>
+        <v>308.88843</v>
       </c>
       <c r="E177">
-        <v>382.29724</v>
+        <v>407.20898</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4618,13 +4593,13 @@
         <v>7.246</v>
       </c>
       <c r="C178">
-        <v>327.7665574</v>
+        <v>366.1979849</v>
       </c>
       <c r="D178">
-        <v>224.727</v>
+        <v>314.48773</v>
       </c>
       <c r="E178">
-        <v>561.1464</v>
+        <v>432.4384</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4642,13 +4617,13 @@
         <v>11.63</v>
       </c>
       <c r="C179">
-        <v>332.8725752</v>
+        <v>367.845202025</v>
       </c>
       <c r="D179">
-        <v>217.4626</v>
+        <v>330.00516</v>
       </c>
       <c r="E179">
-        <v>581.10205</v>
+        <v>431.66528</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4666,13 +4641,13 @@
         <v>13.82</v>
       </c>
       <c r="C180">
-        <v>296.0072875</v>
+        <v>345.89143445</v>
       </c>
       <c r="D180">
-        <v>209.1927</v>
+        <v>312.7761</v>
       </c>
       <c r="E180">
-        <v>495.7067</v>
+        <v>394.07703</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4690,13 +4665,13 @@
         <v>15.97</v>
       </c>
       <c r="C181">
-        <v>292.4596481</v>
+        <v>341.422172525</v>
       </c>
       <c r="D181">
-        <v>187.12431</v>
+        <v>301.4986</v>
       </c>
       <c r="E181">
-        <v>482.95206</v>
+        <v>401.6712</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4714,13 +4689,13 @@
         <v>20.44</v>
       </c>
       <c r="C182">
-        <v>253.49701365</v>
+        <v>309.32956785</v>
       </c>
       <c r="D182">
-        <v>181.82814</v>
+        <v>282.15155</v>
       </c>
       <c r="E182">
-        <v>429.8476</v>
+        <v>339.44485</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4738,13 +4713,13 @@
         <v>23.03</v>
       </c>
       <c r="C183">
-        <v>231.78833125</v>
+        <v>291.0341039</v>
       </c>
       <c r="D183">
-        <v>156.8478</v>
+        <v>265.72025</v>
       </c>
       <c r="E183">
-        <v>398.1925</v>
+        <v>319.37375</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4762,13 +4737,13 @@
         <v>27.82</v>
       </c>
       <c r="C184">
-        <v>253.23181245</v>
+        <v>306.512559675</v>
       </c>
       <c r="D184">
-        <v>182.15526</v>
+        <v>279.39505</v>
       </c>
       <c r="E184">
-        <v>445.3338</v>
+        <v>329.05417</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4786,13 +4761,13 @@
         <v>33.9</v>
       </c>
       <c r="C185">
-        <v>307.07827765</v>
+        <v>328.414150275</v>
       </c>
       <c r="D185">
-        <v>199.4475</v>
+        <v>294.66248</v>
       </c>
       <c r="E185">
-        <v>597.6209</v>
+        <v>356.12473</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4810,13 +4785,13 @@
         <v>37.71</v>
       </c>
       <c r="C186">
-        <v>340.69583475</v>
+        <v>359.47152745</v>
       </c>
       <c r="D186">
-        <v>225.77402</v>
+        <v>310.45456</v>
       </c>
       <c r="E186">
-        <v>598.1895</v>
+        <v>415.96106</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4834,13 +4809,13 @@
         <v>41.2</v>
       </c>
       <c r="C187">
-        <v>403.9974444</v>
+        <v>407.489203525</v>
       </c>
       <c r="D187">
-        <v>269.70712</v>
+        <v>356.11264</v>
       </c>
       <c r="E187">
-        <v>753.65216</v>
+        <v>457.84662</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4858,13 +4833,13 @@
         <v>47.8</v>
       </c>
       <c r="C188">
-        <v>475.19005105</v>
+        <v>412.7934552</v>
       </c>
       <c r="D188">
-        <v>308.35825</v>
+        <v>376.40128</v>
       </c>
       <c r="E188">
-        <v>953.3455</v>
+        <v>460.84668</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4882,13 +4857,13 @@
         <v>56</v>
       </c>
       <c r="C189">
-        <v>605.12597635</v>
+        <v>472.177270875</v>
       </c>
       <c r="D189">
-        <v>415.18158</v>
+        <v>425.5648</v>
       </c>
       <c r="E189">
-        <v>1113.0465</v>
+        <v>528.5977</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4906,13 +4881,13 @@
         <v>59.2</v>
       </c>
       <c r="C190">
-        <v>523.9611630000001</v>
+        <v>341.0964925</v>
       </c>
       <c r="D190">
-        <v>301.96024</v>
+        <v>291.92926</v>
       </c>
       <c r="E190">
-        <v>860.9701</v>
+        <v>401.52298</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4930,13 +4905,13 @@
         <v>61.6</v>
       </c>
       <c r="C191">
-        <v>442.8542448</v>
+        <v>364.880807475</v>
       </c>
       <c r="D191">
-        <v>229.22342</v>
+        <v>283.36377</v>
       </c>
       <c r="E191">
-        <v>763.89136</v>
+        <v>435.28625</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4954,13 +4929,13 @@
         <v>66</v>
       </c>
       <c r="C192">
-        <v>369.3133516</v>
+        <v>343.34173325</v>
       </c>
       <c r="D192">
-        <v>257.30475</v>
+        <v>289.35007</v>
       </c>
       <c r="E192">
-        <v>728.5021400000001</v>
+        <v>450.7038</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4978,13 +4953,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C193">
-        <v>259.65838845</v>
+        <v>275.3708712</v>
       </c>
       <c r="D193">
-        <v>174.62</v>
+        <v>224.13963</v>
       </c>
       <c r="E193">
-        <v>445.88043</v>
+        <v>351.3552</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5002,13 +4977,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C194">
-        <v>138.08417913</v>
+        <v>128.971575125</v>
       </c>
       <c r="D194">
-        <v>86.62487</v>
+        <v>104.32764</v>
       </c>
       <c r="E194">
-        <v>216.25548</v>
+        <v>165.95891</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5026,13 +5001,13 @@
         <v>86.3</v>
       </c>
       <c r="C195">
-        <v>46.01148063</v>
+        <v>45.1036326875</v>
       </c>
       <c r="D195">
-        <v>26.417933</v>
+        <v>36.362854</v>
       </c>
       <c r="E195">
-        <v>74.09569999999999</v>
+        <v>56.980083</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5050,13 +5025,13 @@
         <v>89.8</v>
       </c>
       <c r="C196">
-        <v>37.332771225</v>
+        <v>34.364007895</v>
       </c>
       <c r="D196">
-        <v>17.766165</v>
+        <v>28.152327</v>
       </c>
       <c r="E196">
-        <v>64.65219</v>
+        <v>43.607685</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5074,13 +5049,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C197">
-        <v>31.196966645</v>
+        <v>26.751945555</v>
       </c>
       <c r="D197">
-        <v>19.516197</v>
+        <v>22.692577</v>
       </c>
       <c r="E197">
-        <v>49.562725</v>
+        <v>32.788963</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5098,13 +5073,13 @@
         <v>100.5</v>
       </c>
       <c r="C198">
-        <v>27.19698843</v>
+        <v>22.7536870525</v>
       </c>
       <c r="D198">
-        <v>18.228466</v>
+        <v>18.407137</v>
       </c>
       <c r="E198">
-        <v>42.21303</v>
+        <v>31.323631</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5122,13 +5097,13 @@
         <v>113</v>
       </c>
       <c r="C199">
-        <v>17.4192611075</v>
+        <v>11.158742235</v>
       </c>
       <c r="D199">
-        <v>9.888812</v>
+        <v>8.399072</v>
       </c>
       <c r="E199">
-        <v>30.06821</v>
+        <v>15.200464</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5143,21 +5118,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C200">
-        <v>5.95883777</v>
+        <v>4.84047715825</v>
       </c>
       <c r="D200">
-        <v>3.8406963</v>
+        <v>4.1392055</v>
       </c>
       <c r="E200">
-        <v>10.219038</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>5.7559214</v>
       </c>
     </row>
     <row r="201">
@@ -5170,13 +5140,13 @@
         <v>129.4</v>
       </c>
       <c r="C201">
-        <v>1.58215031835</v>
+        <v>2.8342361685</v>
       </c>
       <c r="D201">
-        <v>0.94997597</v>
+        <v>2.4854374</v>
       </c>
       <c r="E201">
-        <v>2.4206777</v>
+        <v>3.267004</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5194,13 +5164,13 @@
         <v>132.6</v>
       </c>
       <c r="C202">
-        <v>0.0136522150192</v>
+        <v>1.3398619785</v>
       </c>
       <c r="D202">
-        <v>0.00048053265</v>
+        <v>1.1807201</v>
       </c>
       <c r="E202">
-        <v>0.023570657</v>
+        <v>1.5633705</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5218,13 +5188,13 @@
         <v>139.8</v>
       </c>
       <c r="C203">
-        <v>0.0026501750886</v>
+        <v>0.007026348703</v>
       </c>
       <c r="D203">
-        <v>0.00015175343</v>
+        <v>0.0025775433</v>
       </c>
       <c r="E203">
-        <v>0.0075178146</v>
+        <v>0.010403514</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5242,13 +5212,13 @@
         <v>145</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>0.000547918079865</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>8.940697000000001E-06</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.0012680292</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5266,13 +5236,13 @@
         <v>2.58</v>
       </c>
       <c r="C205">
-        <v>44.00000325</v>
+        <v>44.717471455</v>
       </c>
       <c r="D205">
-        <v>43.999992</v>
+        <v>39.942463</v>
       </c>
       <c r="E205">
-        <v>44.00001</v>
+        <v>48.867653</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5290,13 +5260,13 @@
         <v>5.333</v>
       </c>
       <c r="C206">
-        <v>41.792180595</v>
+        <v>44.65778523</v>
       </c>
       <c r="D206">
-        <v>40.228382</v>
+        <v>41.96313</v>
       </c>
       <c r="E206">
-        <v>43.937206</v>
+        <v>47.941917</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5314,13 +5284,13 @@
         <v>7.246</v>
       </c>
       <c r="C207">
-        <v>39.827671405</v>
+        <v>46.2228813825</v>
       </c>
       <c r="D207">
-        <v>36.801384</v>
+        <v>42.53756</v>
       </c>
       <c r="E207">
-        <v>44.57291</v>
+        <v>49.348206</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5338,13 +5308,13 @@
         <v>11.63</v>
       </c>
       <c r="C208">
-        <v>39.76882883</v>
+        <v>47.57208193</v>
       </c>
       <c r="D208">
-        <v>35.966164</v>
+        <v>44.031746</v>
       </c>
       <c r="E208">
-        <v>45.961708</v>
+        <v>51.288994</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5362,13 +5332,13 @@
         <v>13.82</v>
       </c>
       <c r="C209">
-        <v>36.62971805</v>
+        <v>46.4269154575</v>
       </c>
       <c r="D209">
-        <v>30.197638</v>
+        <v>39.769127</v>
       </c>
       <c r="E209">
-        <v>42.30538</v>
+        <v>52.242054</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5386,13 +5356,13 @@
         <v>15.97</v>
       </c>
       <c r="C210">
-        <v>34.88940981</v>
+        <v>45.653369155</v>
       </c>
       <c r="D210">
-        <v>27.149294</v>
+        <v>34.411373</v>
       </c>
       <c r="E210">
-        <v>43.898888</v>
+        <v>52.240173</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5410,13 +5380,13 @@
         <v>20.44</v>
       </c>
       <c r="C211">
-        <v>35.390103735</v>
+        <v>45.2238444425</v>
       </c>
       <c r="D211">
-        <v>29.491762</v>
+        <v>32.349728</v>
       </c>
       <c r="E211">
-        <v>42.13</v>
+        <v>53.780354</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5434,13 +5404,13 @@
         <v>23.03</v>
       </c>
       <c r="C212">
-        <v>30.895717145</v>
+        <v>42.34936613</v>
       </c>
       <c r="D212">
-        <v>24.544062</v>
+        <v>28.427078</v>
       </c>
       <c r="E212">
-        <v>39.049126</v>
+        <v>53.400467</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5458,13 +5428,13 @@
         <v>27.82</v>
       </c>
       <c r="C213">
-        <v>30.499550315</v>
+        <v>42.358235395</v>
       </c>
       <c r="D213">
-        <v>23.311647</v>
+        <v>27.376686</v>
       </c>
       <c r="E213">
-        <v>39.489674</v>
+        <v>53.595104</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5482,13 +5452,13 @@
         <v>33.9</v>
       </c>
       <c r="C214">
-        <v>32.24059719</v>
+        <v>44.1156775775</v>
       </c>
       <c r="D214">
-        <v>22.51162</v>
+        <v>25.866194</v>
       </c>
       <c r="E214">
-        <v>46.75705</v>
+        <v>60.146942</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5506,13 +5476,13 @@
         <v>37.71</v>
       </c>
       <c r="C215">
-        <v>46.720225695</v>
+        <v>64.7194917125</v>
       </c>
       <c r="D215">
-        <v>27.437155</v>
+        <v>35.80838</v>
       </c>
       <c r="E215">
-        <v>90.47241</v>
+        <v>86.401535</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5530,13 +5500,13 @@
         <v>41.2</v>
       </c>
       <c r="C216">
-        <v>93.0336042</v>
+        <v>135.8635608225</v>
       </c>
       <c r="D216">
-        <v>55.88311</v>
+        <v>90.79465999999999</v>
       </c>
       <c r="E216">
-        <v>138.06386</v>
+        <v>181.26277</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5554,13 +5524,13 @@
         <v>47.8</v>
       </c>
       <c r="C217">
-        <v>115.91285946</v>
+        <v>151.78281591</v>
       </c>
       <c r="D217">
-        <v>88.30767</v>
+        <v>108.35387</v>
       </c>
       <c r="E217">
-        <v>147.98708</v>
+        <v>186.91881</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5578,13 +5548,13 @@
         <v>56</v>
       </c>
       <c r="C218">
-        <v>135.33938642</v>
+        <v>184.485809975</v>
       </c>
       <c r="D218">
-        <v>103.47225</v>
+        <v>132.05751</v>
       </c>
       <c r="E218">
-        <v>174.34863</v>
+        <v>238.71408</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5602,13 +5572,13 @@
         <v>59.2</v>
       </c>
       <c r="C219">
-        <v>125.07493106</v>
+        <v>198.803632125</v>
       </c>
       <c r="D219">
-        <v>91.90527</v>
+        <v>140.62581</v>
       </c>
       <c r="E219">
-        <v>161.51491</v>
+        <v>250.89952</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5626,13 +5596,13 @@
         <v>61.6</v>
       </c>
       <c r="C220">
-        <v>110.12772829</v>
+        <v>203.470406825</v>
       </c>
       <c r="D220">
-        <v>77.89902499999999</v>
+        <v>116.43386</v>
       </c>
       <c r="E220">
-        <v>155.65294</v>
+        <v>266.58264</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5650,13 +5620,13 @@
         <v>66</v>
       </c>
       <c r="C221">
-        <v>107.146525835</v>
+        <v>215.8208365</v>
       </c>
       <c r="D221">
-        <v>74.1738</v>
+        <v>123.64009</v>
       </c>
       <c r="E221">
-        <v>142.97661</v>
+        <v>314.6739</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5674,13 +5644,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C222">
-        <v>157.25836926</v>
+        <v>275.84609975</v>
       </c>
       <c r="D222">
-        <v>104.71185</v>
+        <v>185.79681</v>
       </c>
       <c r="E222">
-        <v>227.66414</v>
+        <v>365.47006</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5698,13 +5668,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C223">
-        <v>133.83461624</v>
+        <v>237.087225275</v>
       </c>
       <c r="D223">
-        <v>102.53061</v>
+        <v>169.85002</v>
       </c>
       <c r="E223">
-        <v>175.0534</v>
+        <v>302.41956</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5722,13 +5692,13 @@
         <v>86.3</v>
       </c>
       <c r="C224">
-        <v>101.42220068</v>
+        <v>193.409970325</v>
       </c>
       <c r="D224">
-        <v>76.37973</v>
+        <v>133.56131</v>
       </c>
       <c r="E224">
-        <v>141.94923</v>
+        <v>237.96472</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5746,13 +5716,13 @@
         <v>89.8</v>
       </c>
       <c r="C225">
-        <v>86.18491038499999</v>
+        <v>160.7684958475</v>
       </c>
       <c r="D225">
-        <v>66.20838999999999</v>
+        <v>103.414925</v>
       </c>
       <c r="E225">
-        <v>112.56221</v>
+        <v>195.95798</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5770,13 +5740,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C226">
-        <v>79.40747111</v>
+        <v>142.8390518375</v>
       </c>
       <c r="D226">
-        <v>54.67171</v>
+        <v>88.1897</v>
       </c>
       <c r="E226">
-        <v>118.3184</v>
+        <v>170.28578</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5794,13 +5764,13 @@
         <v>100.5</v>
       </c>
       <c r="C227">
-        <v>77.43433867500001</v>
+        <v>146.9337966125</v>
       </c>
       <c r="D227">
-        <v>52.524845</v>
+        <v>100.16116</v>
       </c>
       <c r="E227">
-        <v>120.24126</v>
+        <v>181.06284</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5818,13 +5788,13 @@
         <v>113</v>
       </c>
       <c r="C228">
-        <v>68.79535419</v>
+        <v>112.56564674</v>
       </c>
       <c r="D228">
-        <v>45.7394</v>
+        <v>73.66822000000001</v>
       </c>
       <c r="E228">
-        <v>100.50868</v>
+        <v>133.54971</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5839,21 +5809,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C229">
-        <v>61.41940629</v>
+        <v>84.19801604999999</v>
       </c>
       <c r="D229">
-        <v>39.932213</v>
+        <v>54.873535</v>
       </c>
       <c r="E229">
-        <v>100.11578</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>99.27786</v>
       </c>
     </row>
     <row r="230">
@@ -5866,13 +5831,13 @@
         <v>129.4</v>
       </c>
       <c r="C230">
-        <v>47.4587677</v>
+        <v>69.7364586625</v>
       </c>
       <c r="D230">
-        <v>28.220675</v>
+        <v>44.370144</v>
       </c>
       <c r="E230">
-        <v>88.942604</v>
+        <v>84.7891</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5890,13 +5855,13 @@
         <v>132.6</v>
       </c>
       <c r="C231">
-        <v>48.127338975</v>
+        <v>63.582728645</v>
       </c>
       <c r="D231">
-        <v>30.319077</v>
+        <v>44.04731</v>
       </c>
       <c r="E231">
-        <v>92.602684</v>
+        <v>77.30025500000001</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5914,13 +5879,13 @@
         <v>139.8</v>
       </c>
       <c r="C232">
-        <v>0.5391932136249999</v>
+        <v>79.29443128</v>
       </c>
       <c r="D232">
-        <v>0.024736524</v>
+        <v>57.632526</v>
       </c>
       <c r="E232">
-        <v>1.367696</v>
+        <v>100.38973</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5938,13 +5903,13 @@
         <v>145</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>67.4007088325</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>56.31318</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>82.86987000000001</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5962,13 +5927,13 @@
         <v>2.58</v>
       </c>
       <c r="C234">
-        <v>274.0000214</v>
+        <v>239.7985171</v>
       </c>
       <c r="D234">
-        <v>273.9999</v>
+        <v>225.05833</v>
       </c>
       <c r="E234">
-        <v>274.00015</v>
+        <v>258.10757</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5986,13 +5951,13 @@
         <v>5.333</v>
       </c>
       <c r="C235">
-        <v>293.2162711</v>
+        <v>244.768046375</v>
       </c>
       <c r="D235">
-        <v>238.71167</v>
+        <v>209.62263</v>
       </c>
       <c r="E235">
-        <v>339.03372</v>
+        <v>266.31165</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6010,13 +5975,13 @@
         <v>7.246</v>
       </c>
       <c r="C236">
-        <v>322.91382895</v>
+        <v>216.01339025</v>
       </c>
       <c r="D236">
-        <v>253.74242</v>
+        <v>195.38097</v>
       </c>
       <c r="E236">
-        <v>424.98566</v>
+        <v>231.48259</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6034,13 +5999,13 @@
         <v>11.63</v>
       </c>
       <c r="C237">
-        <v>337.79008145</v>
+        <v>203.964105075</v>
       </c>
       <c r="D237">
-        <v>246.7559</v>
+        <v>180.18059</v>
       </c>
       <c r="E237">
-        <v>483.14337</v>
+        <v>237.35304</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6058,13 +6023,13 @@
         <v>13.82</v>
       </c>
       <c r="C238">
-        <v>300.25865202</v>
+        <v>163.525490325</v>
       </c>
       <c r="D238">
-        <v>221.96732</v>
+        <v>146.23587</v>
       </c>
       <c r="E238">
-        <v>415.7412</v>
+        <v>198.08022</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6082,13 +6047,13 @@
         <v>15.97</v>
       </c>
       <c r="C239">
-        <v>284.95403795</v>
+        <v>142.56998086</v>
       </c>
       <c r="D239">
-        <v>215.10536</v>
+        <v>119.641495</v>
       </c>
       <c r="E239">
-        <v>391.1352</v>
+        <v>166.01393</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6106,13 +6071,13 @@
         <v>20.44</v>
       </c>
       <c r="C240">
-        <v>287.96794993</v>
+        <v>147.79529033</v>
       </c>
       <c r="D240">
-        <v>216.643486</v>
+        <v>116.76651</v>
       </c>
       <c r="E240">
-        <v>406.2853</v>
+        <v>173.01434</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6130,13 +6095,13 @@
         <v>23.03</v>
       </c>
       <c r="C241">
-        <v>276.83553318</v>
+        <v>134.91972159</v>
       </c>
       <c r="D241">
-        <v>205.92026</v>
+        <v>109.65024</v>
       </c>
       <c r="E241">
-        <v>365.23157</v>
+        <v>158.6821</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6154,13 +6119,13 @@
         <v>27.82</v>
       </c>
       <c r="C242">
-        <v>271.10850412</v>
+        <v>136.373690175</v>
       </c>
       <c r="D242">
-        <v>200.642845</v>
+        <v>112.72105</v>
       </c>
       <c r="E242">
-        <v>352.19412</v>
+        <v>164.06218</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6178,13 +6143,13 @@
         <v>33.9</v>
       </c>
       <c r="C243">
-        <v>217.711295795</v>
+        <v>97.84386686000001</v>
       </c>
       <c r="D243">
-        <v>168.31847</v>
+        <v>79.654144</v>
       </c>
       <c r="E243">
-        <v>275.26756</v>
+        <v>118.33438</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6202,13 +6167,13 @@
         <v>37.71</v>
       </c>
       <c r="C244">
-        <v>204.210852995</v>
+        <v>81.0792536675</v>
       </c>
       <c r="D244">
-        <v>152.95523</v>
+        <v>58.744</v>
       </c>
       <c r="E244">
-        <v>261.81146</v>
+        <v>100.0591</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6226,13 +6191,13 @@
         <v>41.2</v>
       </c>
       <c r="C245">
-        <v>199.03329227</v>
+        <v>83.01991575</v>
       </c>
       <c r="D245">
-        <v>151.928333</v>
+        <v>58.489212</v>
       </c>
       <c r="E245">
-        <v>254.73217</v>
+        <v>101.61096</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6250,13 +6215,13 @@
         <v>47.8</v>
       </c>
       <c r="C246">
-        <v>224.62786977</v>
+        <v>100.2092331</v>
       </c>
       <c r="D246">
-        <v>165.441</v>
+        <v>75.16132</v>
       </c>
       <c r="E246">
-        <v>309.4539</v>
+        <v>128.06029</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6274,13 +6239,13 @@
         <v>56</v>
       </c>
       <c r="C247">
-        <v>272.335906455</v>
+        <v>131.240503685</v>
       </c>
       <c r="D247">
-        <v>202.16307</v>
+        <v>101.70675</v>
       </c>
       <c r="E247">
-        <v>353.57687</v>
+        <v>156.82129</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6298,13 +6263,13 @@
         <v>59.2</v>
       </c>
       <c r="C248">
-        <v>251.471369765</v>
+        <v>118.5863423775</v>
       </c>
       <c r="D248">
-        <v>187.431465</v>
+        <v>92.58658</v>
       </c>
       <c r="E248">
-        <v>349.07289</v>
+        <v>155.89194</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6322,13 +6287,13 @@
         <v>61.6</v>
       </c>
       <c r="C249">
-        <v>269.990960125</v>
+        <v>121.43942843</v>
       </c>
       <c r="D249">
-        <v>193.147415</v>
+        <v>91.64024000000001</v>
       </c>
       <c r="E249">
-        <v>382.18683</v>
+        <v>152.42189</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6346,13 +6311,13 @@
         <v>66</v>
       </c>
       <c r="C250">
-        <v>376.6597851</v>
+        <v>149.45474298</v>
       </c>
       <c r="D250">
-        <v>237.31906</v>
+        <v>114.57691</v>
       </c>
       <c r="E250">
-        <v>627.1232299999999</v>
+        <v>183.71144</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6370,13 +6335,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C251">
-        <v>926.72367975</v>
+        <v>423.17120205</v>
       </c>
       <c r="D251">
-        <v>597.1396</v>
+        <v>362.367</v>
       </c>
       <c r="E251">
-        <v>1582.4651</v>
+        <v>521.92303</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6394,13 +6359,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C252">
-        <v>990.6581147000001</v>
+        <v>436.066182725</v>
       </c>
       <c r="D252">
-        <v>593.25027</v>
+        <v>395.6772</v>
       </c>
       <c r="E252">
-        <v>1623.3442</v>
+        <v>480.3296</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6418,13 +6383,13 @@
         <v>86.3</v>
       </c>
       <c r="C253">
-        <v>774.0691806999999</v>
+        <v>427.34907195</v>
       </c>
       <c r="D253">
-        <v>393.4007</v>
+        <v>343.37662</v>
       </c>
       <c r="E253">
-        <v>1231.7382</v>
+        <v>508.05536</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6442,13 +6407,13 @@
         <v>89.8</v>
       </c>
       <c r="C254">
-        <v>704.4557124</v>
+        <v>323.36456235</v>
       </c>
       <c r="D254">
-        <v>422.74103</v>
+        <v>245.0278</v>
       </c>
       <c r="E254">
-        <v>1156.2225</v>
+        <v>398.4271</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6466,13 +6431,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C255">
-        <v>929.53511665</v>
+        <v>307.477760575</v>
       </c>
       <c r="D255">
-        <v>448.64334</v>
+        <v>248.33975</v>
       </c>
       <c r="E255">
-        <v>2005.2787</v>
+        <v>360.62607</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6490,13 +6455,13 @@
         <v>100.5</v>
       </c>
       <c r="C256">
-        <v>724.3735292</v>
+        <v>365.399018075</v>
       </c>
       <c r="D256">
-        <v>401.93338</v>
+        <v>313.32568</v>
       </c>
       <c r="E256">
-        <v>1204.0151</v>
+        <v>419.74863</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6514,13 +6479,13 @@
         <v>113</v>
       </c>
       <c r="C257">
-        <v>385.2696257</v>
+        <v>166.87499725</v>
       </c>
       <c r="D257">
-        <v>243.46404</v>
+        <v>144.87888</v>
       </c>
       <c r="E257">
-        <v>590.02527</v>
+        <v>188.18211</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6535,21 +6500,16 @@
         </is>
       </c>
       <c r="B258">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C258">
-        <v>304.02804317</v>
+        <v>119.1922959325</v>
       </c>
       <c r="D258">
-        <v>209.40879</v>
+        <v>101.90568</v>
       </c>
       <c r="E258">
-        <v>429.6164</v>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>132.64491</v>
       </c>
     </row>
     <row r="259">
@@ -6562,13 +6522,13 @@
         <v>129.4</v>
       </c>
       <c r="C259">
-        <v>239.143359865</v>
+        <v>92.74170811499999</v>
       </c>
       <c r="D259">
-        <v>171.32373</v>
+        <v>84.91493</v>
       </c>
       <c r="E259">
-        <v>336.7705</v>
+        <v>98.62173</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6586,13 +6546,13 @@
         <v>132.6</v>
       </c>
       <c r="C260">
-        <v>172.52417951</v>
+        <v>65.07385336749999</v>
       </c>
       <c r="D260">
-        <v>63.350075</v>
+        <v>60.15114</v>
       </c>
       <c r="E260">
-        <v>307.27083</v>
+        <v>68.99686</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6610,13 +6570,13 @@
         <v>139.8</v>
       </c>
       <c r="C261">
-        <v>88.80993332</v>
+        <v>61.52668239</v>
       </c>
       <c r="D261">
-        <v>62.47516</v>
+        <v>56.84654</v>
       </c>
       <c r="E261">
-        <v>140.13011</v>
+        <v>66.88764</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6634,13 +6594,13 @@
         <v>145</v>
       </c>
       <c r="C262">
-        <v>55.243132175</v>
+        <v>50.87507895</v>
       </c>
       <c r="D262">
-        <v>39.345062</v>
+        <v>43.863335</v>
       </c>
       <c r="E262">
-        <v>74.05947</v>
+        <v>57.76469</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6658,13 +6618,13 @@
         <v>2.58</v>
       </c>
       <c r="C263">
-        <v>58.00000343</v>
+        <v>59.0889646075</v>
       </c>
       <c r="D263">
-        <v>57.99998</v>
+        <v>47.97561</v>
       </c>
       <c r="E263">
-        <v>58.000034</v>
+        <v>67.20449000000001</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6682,13 +6642,13 @@
         <v>5.333</v>
       </c>
       <c r="C264">
-        <v>64.74770979</v>
+        <v>62.716731485</v>
       </c>
       <c r="D264">
-        <v>46.368168</v>
+        <v>45.71447</v>
       </c>
       <c r="E264">
-        <v>96.19374000000001</v>
+        <v>76.62989</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6706,13 +6666,13 @@
         <v>7.246</v>
       </c>
       <c r="C265">
-        <v>71.47897699000001</v>
+        <v>63.1340418575</v>
       </c>
       <c r="D265">
-        <v>53.451813</v>
+        <v>41.400215</v>
       </c>
       <c r="E265">
-        <v>89.07611</v>
+        <v>75.44038399999999</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6730,13 +6690,13 @@
         <v>11.63</v>
       </c>
       <c r="C266">
-        <v>72.83123285000001</v>
+        <v>59.3027497975</v>
       </c>
       <c r="D266">
-        <v>46.787395</v>
+        <v>33.790157</v>
       </c>
       <c r="E266">
-        <v>91.94696999999999</v>
+        <v>73.47333</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6754,13 +6714,13 @@
         <v>13.82</v>
       </c>
       <c r="C267">
-        <v>62.708414135</v>
+        <v>48.1070864025</v>
       </c>
       <c r="D267">
-        <v>42.478413</v>
+        <v>30.130531</v>
       </c>
       <c r="E267">
-        <v>83.27401999999999</v>
+        <v>60.30836</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6778,13 +6738,13 @@
         <v>15.97</v>
       </c>
       <c r="C268">
-        <v>57.504365155</v>
+        <v>41.148574125</v>
       </c>
       <c r="D268">
-        <v>38.978918</v>
+        <v>25.490173</v>
       </c>
       <c r="E268">
-        <v>77.12141</v>
+        <v>51.558807</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6802,13 +6762,13 @@
         <v>20.44</v>
       </c>
       <c r="C269">
-        <v>56.78696414</v>
+        <v>39.4728780725</v>
       </c>
       <c r="D269">
-        <v>39.970032</v>
+        <v>25.215935</v>
       </c>
       <c r="E269">
-        <v>77.3702</v>
+        <v>48.110813</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6826,13 +6786,13 @@
         <v>23.03</v>
       </c>
       <c r="C270">
-        <v>58.23177769</v>
+        <v>38.5330764375</v>
       </c>
       <c r="D270">
-        <v>41.475624</v>
+        <v>25.88225</v>
       </c>
       <c r="E270">
-        <v>86.840836</v>
+        <v>47.3354</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6850,13 +6810,13 @@
         <v>27.82</v>
       </c>
       <c r="C271">
-        <v>58.381810095</v>
+        <v>37.59351169</v>
       </c>
       <c r="D271">
-        <v>41.195496</v>
+        <v>24.853516</v>
       </c>
       <c r="E271">
-        <v>94.92973000000001</v>
+        <v>49.194466</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6874,13 +6834,13 @@
         <v>33.9</v>
       </c>
       <c r="C272">
-        <v>74.76812284</v>
+        <v>42.9613202075</v>
       </c>
       <c r="D272">
-        <v>48.66823</v>
+        <v>26.989569</v>
       </c>
       <c r="E272">
-        <v>115.02377</v>
+        <v>56.34161</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6898,13 +6858,13 @@
         <v>37.71</v>
       </c>
       <c r="C273">
-        <v>98.00948334500001</v>
+        <v>67.12103761500001</v>
       </c>
       <c r="D273">
-        <v>67.36423500000001</v>
+        <v>49.418163</v>
       </c>
       <c r="E273">
-        <v>160.82962</v>
+        <v>80.3905</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6922,13 +6882,13 @@
         <v>41.2</v>
       </c>
       <c r="C274">
-        <v>106.95331552</v>
+        <v>75.8367816075</v>
       </c>
       <c r="D274">
-        <v>68.801838</v>
+        <v>56.73628</v>
       </c>
       <c r="E274">
-        <v>160.6444</v>
+        <v>91.30816</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6946,13 +6906,13 @@
         <v>47.8</v>
       </c>
       <c r="C275">
-        <v>109.16944813</v>
+        <v>75.09137149</v>
       </c>
       <c r="D275">
-        <v>64.60312999999999</v>
+        <v>54.596897</v>
       </c>
       <c r="E275">
-        <v>174.42702</v>
+        <v>95.38800000000001</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6970,13 +6930,13 @@
         <v>56</v>
       </c>
       <c r="C276">
-        <v>119.257679545</v>
+        <v>85.53015030749999</v>
       </c>
       <c r="D276">
-        <v>81.59966</v>
+        <v>67.16869</v>
       </c>
       <c r="E276">
-        <v>168.63818</v>
+        <v>103.81094</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6994,13 +6954,13 @@
         <v>59.2</v>
       </c>
       <c r="C277">
-        <v>83.22829689</v>
+        <v>53.1726261125</v>
       </c>
       <c r="D277">
-        <v>57.94403</v>
+        <v>35.930153</v>
       </c>
       <c r="E277">
-        <v>112.81248</v>
+        <v>71.16571</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7018,13 +6978,13 @@
         <v>61.6</v>
       </c>
       <c r="C278">
-        <v>69.2258624</v>
+        <v>40.283496255</v>
       </c>
       <c r="D278">
-        <v>50.018787</v>
+        <v>23.910542</v>
       </c>
       <c r="E278">
-        <v>100.18894</v>
+        <v>58.60781</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7042,13 +7002,13 @@
         <v>66</v>
       </c>
       <c r="C279">
-        <v>77.58004973</v>
+        <v>39.9963155575</v>
       </c>
       <c r="D279">
-        <v>53.903072</v>
+        <v>22.573639</v>
       </c>
       <c r="E279">
-        <v>116.86907</v>
+        <v>57.732246</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7066,13 +7026,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C280">
-        <v>124.2454086</v>
+        <v>83.9153611725</v>
       </c>
       <c r="D280">
-        <v>85.77025</v>
+        <v>67.17334</v>
       </c>
       <c r="E280">
-        <v>208.4642</v>
+        <v>101.52478</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7090,13 +7050,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C281">
-        <v>125.68551008</v>
+        <v>89.29886166999999</v>
       </c>
       <c r="D281">
-        <v>82.85149799999999</v>
+        <v>67.657104</v>
       </c>
       <c r="E281">
-        <v>219.30661</v>
+        <v>116.17656</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7114,13 +7074,13 @@
         <v>86.3</v>
       </c>
       <c r="C282">
-        <v>114.16233028</v>
+        <v>94.685052965</v>
       </c>
       <c r="D282">
-        <v>74.05401599999999</v>
+        <v>78.60057999999999</v>
       </c>
       <c r="E282">
-        <v>194.23827</v>
+        <v>115.38916</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7138,13 +7098,13 @@
         <v>89.8</v>
       </c>
       <c r="C283">
-        <v>98.42809008500001</v>
+        <v>73.66421502999999</v>
       </c>
       <c r="D283">
-        <v>66.42296</v>
+        <v>53.08957</v>
       </c>
       <c r="E283">
-        <v>179.68408</v>
+        <v>94.435776</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7162,13 +7122,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C284">
-        <v>100.938812005</v>
+        <v>69.13822644</v>
       </c>
       <c r="D284">
-        <v>66.65559400000001</v>
+        <v>57.421146</v>
       </c>
       <c r="E284">
-        <v>180.33301</v>
+        <v>82.116066</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7186,13 +7146,13 @@
         <v>100.5</v>
       </c>
       <c r="C285">
-        <v>105.361377415</v>
+        <v>80.23743528999999</v>
       </c>
       <c r="D285">
-        <v>72.95945399999999</v>
+        <v>66.732086</v>
       </c>
       <c r="E285">
-        <v>162.10919</v>
+        <v>95.9752</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7210,13 +7170,13 @@
         <v>113</v>
       </c>
       <c r="C286">
-        <v>87.334165875</v>
+        <v>60.0962832175</v>
       </c>
       <c r="D286">
-        <v>60.766605</v>
+        <v>49.21842</v>
       </c>
       <c r="E286">
-        <v>122.2928</v>
+        <v>80.99656</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7231,21 +7191,16 @@
         </is>
       </c>
       <c r="B287">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C287">
-        <v>77.260718395</v>
+        <v>47.8881054425</v>
       </c>
       <c r="D287">
-        <v>53.371506</v>
+        <v>38.214783</v>
       </c>
       <c r="E287">
-        <v>104.833466</v>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>65.10319</v>
       </c>
     </row>
     <row r="288">
@@ -7258,13 +7213,13 @@
         <v>129.4</v>
       </c>
       <c r="C288">
-        <v>64.43766046499999</v>
+        <v>40.8998158075</v>
       </c>
       <c r="D288">
-        <v>19.073194</v>
+        <v>31.290512</v>
       </c>
       <c r="E288">
-        <v>84.09519</v>
+        <v>53.944355</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7282,13 +7237,13 @@
         <v>132.6</v>
       </c>
       <c r="C289">
-        <v>50.4940591465</v>
+        <v>31.6848867175</v>
       </c>
       <c r="D289">
-        <v>10.9554752</v>
+        <v>25.031439</v>
       </c>
       <c r="E289">
-        <v>67.81823700000001</v>
+        <v>41.260902</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7306,13 +7261,13 @@
         <v>139.8</v>
       </c>
       <c r="C290">
-        <v>0.06367772397599999</v>
+        <v>34.84710601</v>
       </c>
       <c r="D290">
-        <v>0.0015351772</v>
+        <v>28.129818</v>
       </c>
       <c r="E290">
-        <v>0.17221677</v>
+        <v>40.433464</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7330,13 +7285,13 @@
         <v>145</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>34.3372796475</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>29.712734</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>41.901215</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7354,13 +7309,13 @@
         <v>2.58</v>
       </c>
       <c r="C292">
-        <v>119.000012725</v>
+        <v>117.246908085</v>
       </c>
       <c r="D292">
-        <v>118.999954</v>
+        <v>105.34697</v>
       </c>
       <c r="E292">
-        <v>119.00006</v>
+        <v>129.78238</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7378,13 +7333,13 @@
         <v>5.333</v>
       </c>
       <c r="C293">
-        <v>126.420569405</v>
+        <v>123.6727414525</v>
       </c>
       <c r="D293">
-        <v>100.67088</v>
+        <v>105.45276</v>
       </c>
       <c r="E293">
-        <v>167.37924</v>
+        <v>142.4787</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7402,13 +7357,13 @@
         <v>7.246</v>
       </c>
       <c r="C294">
-        <v>130.900259015</v>
+        <v>91.8629605675</v>
       </c>
       <c r="D294">
-        <v>112.268936</v>
+        <v>73.89368399999999</v>
       </c>
       <c r="E294">
-        <v>173.99268</v>
+        <v>114.60336</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7426,13 +7381,13 @@
         <v>11.63</v>
       </c>
       <c r="C295">
-        <v>142.37291362</v>
+        <v>84.68994192</v>
       </c>
       <c r="D295">
-        <v>109.812996</v>
+        <v>67.81164</v>
       </c>
       <c r="E295">
-        <v>223.67894</v>
+        <v>109.47678</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7450,13 +7405,13 @@
         <v>13.82</v>
       </c>
       <c r="C296">
-        <v>143.32850519</v>
+        <v>76.76932866</v>
       </c>
       <c r="D296">
-        <v>111.85398</v>
+        <v>58.48314</v>
       </c>
       <c r="E296">
-        <v>217.0733</v>
+        <v>103.181885</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7474,13 +7429,13 @@
         <v>15.97</v>
       </c>
       <c r="C297">
-        <v>140.99263977</v>
+        <v>77.03652802000001</v>
       </c>
       <c r="D297">
-        <v>113.32923</v>
+        <v>61.038475</v>
       </c>
       <c r="E297">
-        <v>193.46791</v>
+        <v>110.593666</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7498,13 +7453,13 @@
         <v>20.44</v>
       </c>
       <c r="C298">
-        <v>133.133458905</v>
+        <v>73.91539890750001</v>
       </c>
       <c r="D298">
-        <v>107.98417</v>
+        <v>55.82994</v>
       </c>
       <c r="E298">
-        <v>180.64784</v>
+        <v>103.65538</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7522,13 +7477,13 @@
         <v>23.03</v>
       </c>
       <c r="C299">
-        <v>120.39623336</v>
+        <v>64.00861048500001</v>
       </c>
       <c r="D299">
-        <v>97.22957</v>
+        <v>46.121136</v>
       </c>
       <c r="E299">
-        <v>160.26059</v>
+        <v>94.428085</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7546,13 +7501,13 @@
         <v>27.82</v>
       </c>
       <c r="C300">
-        <v>111.871377925</v>
+        <v>58.0831572975</v>
       </c>
       <c r="D300">
-        <v>89.629555</v>
+        <v>44.81547</v>
       </c>
       <c r="E300">
-        <v>142.67722</v>
+        <v>83.83544999999999</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7570,13 +7525,13 @@
         <v>33.9</v>
       </c>
       <c r="C301">
-        <v>106.386426175</v>
+        <v>51.327637195</v>
       </c>
       <c r="D301">
-        <v>83.344307</v>
+        <v>39.488968</v>
       </c>
       <c r="E301">
-        <v>133.41983</v>
+        <v>74.70023</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7594,13 +7549,13 @@
         <v>37.71</v>
       </c>
       <c r="C302">
-        <v>122.187930655</v>
+        <v>62.6917353675</v>
       </c>
       <c r="D302">
-        <v>84.95986000000001</v>
+        <v>37.142944</v>
       </c>
       <c r="E302">
-        <v>227.26056</v>
+        <v>94.1202</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7618,13 +7573,13 @@
         <v>41.2</v>
       </c>
       <c r="C303">
-        <v>141.86296813</v>
+        <v>88.0797229925</v>
       </c>
       <c r="D303">
-        <v>100.0851</v>
+        <v>64.89586</v>
       </c>
       <c r="E303">
-        <v>295.26044</v>
+        <v>141.43423</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7642,13 +7597,13 @@
         <v>47.8</v>
       </c>
       <c r="C304">
-        <v>130.10863651</v>
+        <v>82.7472538975</v>
       </c>
       <c r="D304">
-        <v>92.80154400000001</v>
+        <v>65.71662999999999</v>
       </c>
       <c r="E304">
-        <v>204.55211</v>
+        <v>111.549904</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7666,13 +7621,13 @@
         <v>56</v>
       </c>
       <c r="C305">
-        <v>92.08932839000001</v>
+        <v>51.622790565</v>
       </c>
       <c r="D305">
-        <v>66.89547999999999</v>
+        <v>39.83369</v>
       </c>
       <c r="E305">
-        <v>120.05278</v>
+        <v>67.52343</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7690,13 +7645,13 @@
         <v>59.2</v>
       </c>
       <c r="C306">
-        <v>67.80315869500001</v>
+        <v>33.491204385</v>
       </c>
       <c r="D306">
-        <v>50.101969</v>
+        <v>25.425558</v>
       </c>
       <c r="E306">
-        <v>81.341106</v>
+        <v>45.644703</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7714,13 +7669,13 @@
         <v>61.6</v>
       </c>
       <c r="C307">
-        <v>71.32402397</v>
+        <v>36.127090275</v>
       </c>
       <c r="D307">
-        <v>48.095938</v>
+        <v>25.68548</v>
       </c>
       <c r="E307">
-        <v>90.823956</v>
+        <v>50.895638</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7738,13 +7693,13 @@
         <v>66</v>
       </c>
       <c r="C308">
-        <v>83.476053885</v>
+        <v>44.226720415</v>
       </c>
       <c r="D308">
-        <v>60.595253</v>
+        <v>30.977983</v>
       </c>
       <c r="E308">
-        <v>101.48616</v>
+        <v>60.54776</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7762,13 +7717,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C309">
-        <v>107.85562081</v>
+        <v>72.99315869</v>
       </c>
       <c r="D309">
-        <v>82.41839999999999</v>
+        <v>52.454613</v>
       </c>
       <c r="E309">
-        <v>148.53494</v>
+        <v>100.19329</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7786,13 +7741,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C310">
-        <v>100.405463545</v>
+        <v>70.7032184575</v>
       </c>
       <c r="D310">
-        <v>79.11790500000001</v>
+        <v>48.304623</v>
       </c>
       <c r="E310">
-        <v>121.6275</v>
+        <v>98.40132</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7810,13 +7765,13 @@
         <v>86.3</v>
       </c>
       <c r="C311">
-        <v>72.36988499499999</v>
+        <v>42.51541883</v>
       </c>
       <c r="D311">
-        <v>55.78675</v>
+        <v>34.656</v>
       </c>
       <c r="E311">
-        <v>94.25112</v>
+        <v>56.50283</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7834,13 +7789,13 @@
         <v>89.8</v>
       </c>
       <c r="C312">
-        <v>65.86657121</v>
+        <v>35.9396734925</v>
       </c>
       <c r="D312">
-        <v>49.969105</v>
+        <v>27.487574</v>
       </c>
       <c r="E312">
-        <v>84.39568</v>
+        <v>46.336025</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7858,13 +7813,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C313">
-        <v>60.933009775</v>
+        <v>31.6733089825</v>
       </c>
       <c r="D313">
-        <v>44.079412</v>
+        <v>23.755896</v>
       </c>
       <c r="E313">
-        <v>78.46189</v>
+        <v>41.790104</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7882,13 +7837,13 @@
         <v>100.5</v>
       </c>
       <c r="C314">
-        <v>58.230301705</v>
+        <v>28.47239263</v>
       </c>
       <c r="D314">
-        <v>44.98795</v>
+        <v>21.655615</v>
       </c>
       <c r="E314">
-        <v>68.705067</v>
+        <v>37.705982</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7906,13 +7861,13 @@
         <v>113</v>
       </c>
       <c r="C315">
-        <v>46.485610515</v>
+        <v>18.62040516625</v>
       </c>
       <c r="D315">
-        <v>34.667285</v>
+        <v>13.739027</v>
       </c>
       <c r="E315">
-        <v>55.27069</v>
+        <v>24.257118</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7927,21 +7882,16 @@
         </is>
       </c>
       <c r="B316">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C316">
-        <v>32.069845543</v>
+        <v>4.89209171475</v>
       </c>
       <c r="D316">
-        <v>23.7931724</v>
+        <v>3.704185</v>
       </c>
       <c r="E316">
-        <v>39.9658823</v>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>6.928099</v>
       </c>
     </row>
     <row r="317">
@@ -7954,13 +7904,13 @@
         <v>129.4</v>
       </c>
       <c r="C317">
-        <v>28.4179238723</v>
+        <v>1.34940432025</v>
       </c>
       <c r="D317">
-        <v>20.8862666</v>
+        <v>1.1109939</v>
       </c>
       <c r="E317">
-        <v>35.8829957</v>
+        <v>1.8462775</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7978,13 +7928,13 @@
         <v>132.6</v>
       </c>
       <c r="C318">
-        <v>20.4270733073</v>
+        <v>0.0042681595626</v>
       </c>
       <c r="D318">
-        <v>20.33253896</v>
+        <v>0.00068473816</v>
       </c>
       <c r="E318">
-        <v>20.55637205</v>
+        <v>0.011969328</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8002,13 +7952,13 @@
         <v>139.8</v>
       </c>
       <c r="C319">
-        <v>0.18058717415</v>
+        <v>5.1799118535E-05</v>
       </c>
       <c r="D319">
-        <v>0.13221979</v>
+        <v>1.3113022E-06</v>
       </c>
       <c r="E319">
-        <v>0.23816466</v>
+        <v>0.00012028217</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8026,13 +7976,13 @@
         <v>145</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>0.00014421164979875</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>3.5762787E-07</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>0.0004029274</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
